--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4603CDF6-34F4-4691-AF30-80038767FFD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2514A2-4682-4EFA-AF8A-75FDDF585A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -41958,7 +41958,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -41987,7 +41987,7 @@
         <v>142</v>
       </c>
       <c r="C3" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -41998,7 +41998,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42009,7 +42009,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42020,7 +42020,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42031,7 +42031,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42042,7 +42042,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42053,7 +42053,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42064,7 +42064,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42075,7 +42075,7 @@
         <v>143</v>
       </c>
       <c r="C11" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42086,7 +42086,7 @@
         <v>143</v>
       </c>
       <c r="C12" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42097,7 +42097,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42108,7 +42108,7 @@
         <v>143</v>
       </c>
       <c r="C14" s="35">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42119,7 +42119,7 @@
         <v>144</v>
       </c>
       <c r="C15" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42130,7 +42130,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42141,7 +42141,7 @@
         <v>144</v>
       </c>
       <c r="C17" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42152,7 +42152,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42163,7 +42163,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42174,7 +42174,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="35">
-        <v>0.99</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42185,7 +42185,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42196,7 +42196,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42207,7 +42207,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42218,7 +42218,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42229,7 +42229,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="35">
-        <v>0.9</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -42239,8 +42239,8 @@
       <c r="B26" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="C26" s="36">
-        <v>0.9</v>
+      <c r="C26" s="35">
+        <v>0.995</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2514A2-4682-4EFA-AF8A-75FDDF585A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A263BEA-A4C7-4667-9972-66A0FCFABD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -41958,7 +41958,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -41987,7 +41987,7 @@
         <v>142</v>
       </c>
       <c r="C3" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -41998,7 +41998,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42009,7 +42009,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42020,7 +42020,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42031,7 +42031,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42042,7 +42042,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42053,7 +42053,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42064,7 +42064,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42075,7 +42075,7 @@
         <v>143</v>
       </c>
       <c r="C11" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42086,7 +42086,7 @@
         <v>143</v>
       </c>
       <c r="C12" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42097,7 +42097,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42108,7 +42108,7 @@
         <v>143</v>
       </c>
       <c r="C14" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42119,7 +42119,7 @@
         <v>144</v>
       </c>
       <c r="C15" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42130,7 +42130,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42141,7 +42141,7 @@
         <v>144</v>
       </c>
       <c r="C17" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42152,7 +42152,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42163,7 +42163,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42174,7 +42174,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42185,7 +42185,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42196,7 +42196,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42207,7 +42207,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42218,7 +42218,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42229,7 +42229,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -42240,7 +42240,7 @@
         <v>145</v>
       </c>
       <c r="C26" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A263BEA-A4C7-4667-9972-66A0FCFABD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89C59B-5298-447A-B8B0-59E50F5C6879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -1014,7 +1014,7 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -41958,7 +41958,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elmira\Documents\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2514A2-4682-4EFA-AF8A-75FDDF585A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D89C59B-5298-447A-B8B0-59E50F5C6879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="834" firstSheet="62" activeTab="68" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -1014,7 +1014,7 @@
     <t>Table with indication if the treatment technology is for desalination</t>
   </si>
   <si>
-    <t>Table of Removal Efficiency [%]</t>
+    <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
 </sst>
 </file>
@@ -41958,7 +41958,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -41987,7 +41987,7 @@
         <v>142</v>
       </c>
       <c r="C3" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -41998,7 +41998,7 @@
         <v>142</v>
       </c>
       <c r="C4" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42009,7 +42009,7 @@
         <v>142</v>
       </c>
       <c r="C5" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42020,7 +42020,7 @@
         <v>142</v>
       </c>
       <c r="C6" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42031,7 +42031,7 @@
         <v>142</v>
       </c>
       <c r="C7" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42042,7 +42042,7 @@
         <v>142</v>
       </c>
       <c r="C8" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42053,7 +42053,7 @@
         <v>143</v>
       </c>
       <c r="C9" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42064,7 +42064,7 @@
         <v>143</v>
       </c>
       <c r="C10" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42075,7 +42075,7 @@
         <v>143</v>
       </c>
       <c r="C11" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42086,7 +42086,7 @@
         <v>143</v>
       </c>
       <c r="C12" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42097,7 +42097,7 @@
         <v>143</v>
       </c>
       <c r="C13" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42108,7 +42108,7 @@
         <v>143</v>
       </c>
       <c r="C14" s="35">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42119,7 +42119,7 @@
         <v>144</v>
       </c>
       <c r="C15" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42130,7 +42130,7 @@
         <v>144</v>
       </c>
       <c r="C16" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42141,7 +42141,7 @@
         <v>144</v>
       </c>
       <c r="C17" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42152,7 +42152,7 @@
         <v>144</v>
       </c>
       <c r="C18" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42163,7 +42163,7 @@
         <v>144</v>
       </c>
       <c r="C19" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42174,7 +42174,7 @@
         <v>144</v>
       </c>
       <c r="C20" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42185,7 +42185,7 @@
         <v>145</v>
       </c>
       <c r="C21" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42196,7 +42196,7 @@
         <v>145</v>
       </c>
       <c r="C22" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42207,7 +42207,7 @@
         <v>145</v>
       </c>
       <c r="C23" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42218,7 +42218,7 @@
         <v>145</v>
       </c>
       <c r="C24" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.3" x14ac:dyDescent="0.55000000000000004">
@@ -42229,7 +42229,7 @@
         <v>145</v>
       </c>
       <c r="C25" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
@@ -42240,7 +42240,7 @@
         <v>145</v>
       </c>
       <c r="C26" s="35">
-        <v>0.995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naresh\pareto\src\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353103E8-DA29-496C-8E08-D19E8CDF470E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D0909E-B5B2-48B4-A8B5-AB126CADE0C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="834" firstSheet="40" activeTab="40" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="834" firstSheet="70" activeTab="77" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -90,6 +90,8 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId75"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId76"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId77"/>
+    <sheet name="AirEmissionCoefficients" sheetId="115" r:id="rId78"/>
+    <sheet name="TreatmentEmissionCoefficients" sheetId="116" r:id="rId79"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="63" hidden="1">#REF!</definedName>
@@ -116,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3375" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3395" uniqueCount="311">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1020,6 +1022,36 @@
   <si>
     <t>Table of Removal Efficiency [%]. Note: The removal efficiency of a component can be estimated based on its concentration or its total load (flow times concentration). The default method for calculating removal efficacy is concentration-based. This configuration option is set prior to running the optimization. Refer to 'Water Treatment' in Model Library documentation.</t>
   </si>
+  <si>
+    <t>CO2</t>
+  </si>
+  <si>
+    <t>NH3</t>
+  </si>
+  <si>
+    <t>NOx</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>PM 2.5</t>
+  </si>
+  <si>
+    <t>Trucking (g/hour)</t>
+  </si>
+  <si>
+    <t>Pipeline Operations (g/(bbl-mile))</t>
+  </si>
+  <si>
+    <t>Pipeline Installation (g/mile)</t>
+  </si>
+  <si>
+    <t>Disposal (g/bbl)</t>
+  </si>
+  <si>
+    <t>Storage (g/bbl-week)</t>
+  </si>
 </sst>
 </file>
 
@@ -1124,7 +1156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1607,6 +1639,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1614,7 +1659,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1911,6 +1956,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2342,15 +2408,15 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="14"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -2362,7 +2428,7 @@
       <c r="J2" s="15"/>
       <c r="K2" s="16"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="17"/>
       <c r="C3" s="18" t="s">
         <v>0</v>
@@ -2376,7 +2442,7 @@
       <c r="J3" s="19"/>
       <c r="K3" s="20"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="17"/>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -2388,7 +2454,7 @@
       <c r="J4" s="19"/>
       <c r="K4" s="20"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="19" t="s">
         <v>1</v>
@@ -2402,7 +2468,7 @@
       <c r="J5" s="19"/>
       <c r="K5" s="20"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="17"/>
       <c r="C6" s="19" t="s">
         <v>2</v>
@@ -2416,7 +2482,7 @@
       <c r="J6" s="19"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="17"/>
       <c r="C7" s="19" t="s">
         <v>3</v>
@@ -2430,7 +2496,7 @@
       <c r="J7" s="19"/>
       <c r="K7" s="20"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="19" t="s">
         <v>4</v>
@@ -2444,7 +2510,7 @@
       <c r="J8" s="19"/>
       <c r="K8" s="20"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="17"/>
       <c r="C9" s="19" t="s">
         <v>5</v>
@@ -2458,7 +2524,7 @@
       <c r="J9" s="19"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="17"/>
       <c r="C10" s="19" t="s">
         <v>6</v>
@@ -2472,7 +2538,7 @@
       <c r="J10" s="19"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="17"/>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -2484,7 +2550,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="17"/>
       <c r="C12" s="19" t="s">
         <v>7</v>
@@ -2498,7 +2564,7 @@
       <c r="J12" s="19"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="17"/>
       <c r="C13" s="19" t="s">
         <v>8</v>
@@ -2512,7 +2578,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="17"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
@@ -2524,7 +2590,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="17"/>
       <c r="C15" s="19" t="s">
         <v>9</v>
@@ -2538,7 +2604,7 @@
       <c r="J15" s="19"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="19" t="s">
         <v>10</v>
@@ -2552,7 +2618,7 @@
       <c r="J16" s="19"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="17"/>
       <c r="C17" s="19" t="s">
         <v>11</v>
@@ -2566,7 +2632,7 @@
       <c r="J17" s="19"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="17"/>
       <c r="C18" s="19" t="s">
         <v>12</v>
@@ -2580,7 +2646,7 @@
       <c r="J18" s="19"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="17"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -2592,7 +2658,7 @@
       <c r="J19" s="19"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -2604,7 +2670,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="17"/>
       <c r="C21" s="21" t="s">
         <v>13</v>
@@ -2620,7 +2686,7 @@
       <c r="J21" s="19"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="17"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -2632,7 +2698,7 @@
       <c r="J22" s="19"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="17"/>
       <c r="C23" s="22" t="s">
         <v>15</v>
@@ -2648,7 +2714,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="17"/>
       <c r="C24" s="22" t="s">
         <v>17</v>
@@ -2664,7 +2730,7 @@
       <c r="J24" s="19"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="17"/>
       <c r="C25" s="22" t="s">
         <v>19</v>
@@ -2680,7 +2746,7 @@
       <c r="J25" s="19"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="17"/>
       <c r="C26" s="22" t="s">
         <v>21</v>
@@ -2696,7 +2762,7 @@
       <c r="J26" s="19"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="17"/>
       <c r="C27" s="22" t="s">
         <v>23</v>
@@ -2712,7 +2778,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
       <c r="C28" s="22" t="s">
         <v>25</v>
@@ -2728,7 +2794,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="17"/>
       <c r="C29" s="22" t="s">
         <v>27</v>
@@ -2744,7 +2810,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B30" s="17"/>
       <c r="C30" s="22" t="s">
         <v>29</v>
@@ -2760,7 +2826,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B31" s="17"/>
       <c r="C31" s="22" t="s">
         <v>31</v>
@@ -2779,7 +2845,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B32" s="17"/>
       <c r="C32" s="22" t="s">
         <v>34</v>
@@ -2795,7 +2861,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="17"/>
       <c r="C33" s="22" t="s">
         <v>36</v>
@@ -2811,7 +2877,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34" s="17"/>
       <c r="C34" s="22" t="s">
         <v>38</v>
@@ -2827,7 +2893,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="22" t="s">
         <v>40</v>
@@ -2843,7 +2909,7 @@
       <c r="J35" s="19"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36" s="17"/>
       <c r="C36" s="22" t="s">
         <v>42</v>
@@ -2859,7 +2925,7 @@
       <c r="J36" s="19"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="23"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
@@ -2904,30 +2970,30 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>137</v>
       </c>
@@ -2935,22 +3001,22 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>141</v>
       </c>
@@ -2973,30 +3039,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>143</v>
       </c>
@@ -3004,12 +3070,12 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>145</v>
       </c>
@@ -3031,28 +3097,28 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -3075,30 +3141,30 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>149</v>
       </c>
@@ -3106,137 +3172,137 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="12"/>
     </row>
   </sheetData>
@@ -3257,45 +3323,45 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>181</v>
       </c>
@@ -3317,30 +3383,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>184</v>
       </c>
@@ -3348,20 +3414,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3381,30 +3447,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>189</v>
       </c>
@@ -3412,20 +3478,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3445,30 +3511,30 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>194</v>
       </c>
@@ -3476,20 +3542,20 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
     </row>
   </sheetData>
@@ -3509,18 +3575,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
@@ -3610,7 +3676,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -3645,7 +3711,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -3680,7 +3746,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -3715,7 +3781,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -3750,7 +3816,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -3787,7 +3853,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -3822,7 +3888,7 @@
       <c r="AB8" s="9"/>
       <c r="AC8" s="31"/>
     </row>
-    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -3857,7 +3923,7 @@
       <c r="AB9" s="9"/>
       <c r="AC9" s="31"/>
     </row>
-    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -3892,7 +3958,7 @@
       <c r="AB10" s="9"/>
       <c r="AC10" s="31"/>
     </row>
-    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -3927,7 +3993,7 @@
       <c r="AB11" s="9"/>
       <c r="AC11" s="31"/>
     </row>
-    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -3962,7 +4028,7 @@
       <c r="AB12" s="9"/>
       <c r="AC12" s="31"/>
     </row>
-    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -3997,7 +4063,7 @@
       <c r="AB13" s="9"/>
       <c r="AC13" s="31"/>
     </row>
-    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -4032,7 +4098,7 @@
       </c>
       <c r="AC14" s="31"/>
     </row>
-    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -4067,7 +4133,7 @@
       </c>
       <c r="AC15" s="31"/>
     </row>
-    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -4121,18 +4187,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -4222,7 +4288,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4258,7 +4324,7 @@
       <c r="AC3" s="34"/>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4294,7 +4360,7 @@
       <c r="AC4" s="34"/>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4344,61 +4410,61 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" customWidth="1"/>
+    <col min="10" max="10" width="4.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C3" s="40"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="41"/>
       <c r="F21" s="41"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="42"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="42"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="42"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="42"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="42"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="42"/>
       <c r="M31" s="26"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="42"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="42"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="42"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="42"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="42"/>
     </row>
   </sheetData>
@@ -4418,18 +4484,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -4443,7 +4509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -4451,7 +4517,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -4459,7 +4525,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -4484,18 +4550,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -4585,7 +4651,7 @@
       </c>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
@@ -4620,7 +4686,7 @@
       <c r="AB3" s="9"/>
       <c r="AC3" s="31"/>
     </row>
-    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
@@ -4659,7 +4725,7 @@
       <c r="AB4" s="9"/>
       <c r="AC4" s="31"/>
     </row>
-    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -4696,7 +4762,7 @@
       <c r="AB5" s="9"/>
       <c r="AC5" s="31"/>
     </row>
-    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
@@ -4733,7 +4799,7 @@
       <c r="AB6" s="9"/>
       <c r="AC6" s="31"/>
     </row>
-    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>152</v>
       </c>
@@ -4770,7 +4836,7 @@
       <c r="AB7" s="9"/>
       <c r="AC7" s="31"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
@@ -4808,7 +4874,7 @@
       <c r="AC8" s="31"/>
       <c r="AD8" s="8"/>
     </row>
-    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
@@ -4848,7 +4914,7 @@
       <c r="AC9" s="31"/>
       <c r="AD9" s="8"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>155</v>
       </c>
@@ -4886,7 +4952,7 @@
       <c r="AC10" s="31"/>
       <c r="AD10" s="8"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
@@ -4926,7 +4992,7 @@
       <c r="AC11" s="31"/>
       <c r="AD11" s="8"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>157</v>
       </c>
@@ -4962,7 +5028,7 @@
       <c r="AC12" s="31"/>
       <c r="AD12" s="8"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>158</v>
       </c>
@@ -5000,7 +5066,7 @@
       <c r="AC13" s="31"/>
       <c r="AD13" s="8"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>159</v>
       </c>
@@ -5036,7 +5102,7 @@
       <c r="AC14" s="31"/>
       <c r="AD14" s="8"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>160</v>
       </c>
@@ -5074,7 +5140,7 @@
       <c r="AC15" s="31"/>
       <c r="AD15" s="8"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>161</v>
       </c>
@@ -5114,7 +5180,7 @@
       </c>
       <c r="AD16" s="8"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>162</v>
       </c>
@@ -5152,7 +5218,7 @@
       </c>
       <c r="AD17" s="8"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>163</v>
       </c>
@@ -5190,7 +5256,7 @@
       <c r="AC18" s="31"/>
       <c r="AD18" s="8"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
@@ -5226,7 +5292,7 @@
       <c r="AC19" s="31"/>
       <c r="AD19" s="8"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>165</v>
       </c>
@@ -5262,7 +5328,7 @@
       <c r="AC20" s="31"/>
       <c r="AD20" s="8"/>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>166</v>
       </c>
@@ -5300,7 +5366,7 @@
       <c r="AC21" s="31"/>
       <c r="AD21" s="8"/>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
@@ -5338,7 +5404,7 @@
       </c>
       <c r="AD22" s="8"/>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>168</v>
       </c>
@@ -5376,7 +5442,7 @@
       <c r="AC23" s="31"/>
       <c r="AD23" s="8"/>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>169</v>
       </c>
@@ -5416,7 +5482,7 @@
       <c r="AC24" s="31"/>
       <c r="AD24" s="8"/>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
@@ -5454,7 +5520,7 @@
       <c r="AC25" s="31"/>
       <c r="AD25" s="8"/>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>171</v>
       </c>
@@ -5492,7 +5558,7 @@
       <c r="AC26" s="31"/>
       <c r="AD26" s="8"/>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>172</v>
       </c>
@@ -5530,7 +5596,7 @@
       <c r="AC27" s="31"/>
       <c r="AD27" s="8"/>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>173</v>
       </c>
@@ -5568,7 +5634,7 @@
       <c r="AC28" s="31"/>
       <c r="AD28" s="8"/>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>174</v>
       </c>
@@ -5604,7 +5670,7 @@
       <c r="AC29" s="31"/>
       <c r="AD29" s="8"/>
     </row>
-    <row r="30" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -5644,7 +5710,7 @@
       <c r="AC30" s="11"/>
       <c r="AD30" s="8"/>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5694,18 +5760,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -5719,7 +5785,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
@@ -5727,7 +5793,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
@@ -5735,7 +5801,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -5743,7 +5809,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
@@ -5751,7 +5817,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>152</v>
       </c>
@@ -5759,7 +5825,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
@@ -5767,7 +5833,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
@@ -5775,7 +5841,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>155</v>
       </c>
@@ -5783,7 +5849,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
@@ -5791,7 +5857,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>157</v>
       </c>
@@ -5799,7 +5865,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>158</v>
       </c>
@@ -5807,7 +5873,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>159</v>
       </c>
@@ -5815,7 +5881,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>160</v>
       </c>
@@ -5823,7 +5889,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>161</v>
       </c>
@@ -5831,7 +5897,7 @@
       <c r="C16" s="9"/>
       <c r="D16" s="31"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>162</v>
       </c>
@@ -5839,7 +5905,7 @@
       <c r="C17" s="9"/>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>163</v>
       </c>
@@ -5847,7 +5913,7 @@
       <c r="C18" s="9"/>
       <c r="D18" s="31"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
@@ -5855,7 +5921,7 @@
       <c r="C19" s="9"/>
       <c r="D19" s="31"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>165</v>
       </c>
@@ -5863,7 +5929,7 @@
       <c r="C20" s="9"/>
       <c r="D20" s="31"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>166</v>
       </c>
@@ -5871,7 +5937,7 @@
       <c r="C21" s="9"/>
       <c r="D21" s="31"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
@@ -5879,7 +5945,7 @@
       <c r="C22" s="9"/>
       <c r="D22" s="31"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>168</v>
       </c>
@@ -5887,7 +5953,7 @@
       <c r="C23" s="9"/>
       <c r="D23" s="31"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>169</v>
       </c>
@@ -5895,7 +5961,7 @@
       <c r="C24" s="9"/>
       <c r="D24" s="31"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
@@ -5903,7 +5969,7 @@
       <c r="C25" s="9"/>
       <c r="D25" s="31"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>171</v>
       </c>
@@ -5911,7 +5977,7 @@
       <c r="C26" s="9"/>
       <c r="D26" s="31"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>172</v>
       </c>
@@ -5919,7 +5985,7 @@
       <c r="C27" s="9"/>
       <c r="D27" s="31"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>173</v>
       </c>
@@ -5927,7 +5993,7 @@
       <c r="C28" s="9"/>
       <c r="D28" s="31"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>174</v>
       </c>
@@ -5935,7 +6001,7 @@
       <c r="C29" s="9"/>
       <c r="D29" s="31"/>
     </row>
-    <row r="30" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -5943,7 +6009,7 @@
       <c r="C30" s="10"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5966,18 +6032,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -5997,7 +6063,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
@@ -6009,7 +6075,7 @@
       <c r="E3" s="9"/>
       <c r="F3" s="31"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
@@ -6019,7 +6085,7 @@
       <c r="E4" s="9"/>
       <c r="F4" s="31"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -6029,7 +6095,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="31"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
@@ -6041,7 +6107,7 @@
       <c r="E6" s="9"/>
       <c r="F6" s="31"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>152</v>
       </c>
@@ -6051,7 +6117,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="31"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
@@ -6061,7 +6127,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="31"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
@@ -6071,7 +6137,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="31"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>155</v>
       </c>
@@ -6081,7 +6147,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="31"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
@@ -6091,7 +6157,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="31"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>157</v>
       </c>
@@ -6101,7 +6167,7 @@
       <c r="E12" s="9"/>
       <c r="F12" s="31"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>158</v>
       </c>
@@ -6111,7 +6177,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="31"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>159</v>
       </c>
@@ -6121,7 +6187,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="31"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>160</v>
       </c>
@@ -6133,7 +6199,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="31"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>161</v>
       </c>
@@ -6143,7 +6209,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="31"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>162</v>
       </c>
@@ -6153,7 +6219,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="31"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>163</v>
       </c>
@@ -6163,7 +6229,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
@@ -6175,7 +6241,7 @@
       </c>
       <c r="F19" s="31"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>165</v>
       </c>
@@ -6187,7 +6253,7 @@
       </c>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>166</v>
       </c>
@@ -6197,7 +6263,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="31"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
@@ -6207,7 +6273,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>168</v>
       </c>
@@ -6217,7 +6283,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="31"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>169</v>
       </c>
@@ -6229,7 +6295,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
@@ -6239,7 +6305,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="31"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>171</v>
       </c>
@@ -6249,7 +6315,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="31"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>172</v>
       </c>
@@ -6259,7 +6325,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>173</v>
       </c>
@@ -6271,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>174</v>
       </c>
@@ -6281,7 +6347,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -6291,7 +6357,7 @@
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6317,18 +6383,18 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6351,7 +6417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
@@ -6362,7 +6428,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
@@ -6373,7 +6439,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
@@ -6386,7 +6452,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
@@ -6397,7 +6463,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>152</v>
       </c>
@@ -6408,7 +6474,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
@@ -6419,7 +6485,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
@@ -6430,7 +6496,7 @@
       <c r="F9" s="9"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>155</v>
       </c>
@@ -6441,7 +6507,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
@@ -6452,7 +6518,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>157</v>
       </c>
@@ -6465,7 +6531,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>158</v>
       </c>
@@ -6476,7 +6542,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>159</v>
       </c>
@@ -6489,7 +6555,7 @@
       <c r="F14" s="9"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>160</v>
       </c>
@@ -6500,7 +6566,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>161</v>
       </c>
@@ -6511,7 +6577,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>162</v>
       </c>
@@ -6522,7 +6588,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>163</v>
       </c>
@@ -6533,7 +6599,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
@@ -6544,7 +6610,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>165</v>
       </c>
@@ -6555,7 +6621,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>166</v>
       </c>
@@ -6566,7 +6632,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="31"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
@@ -6579,7 +6645,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="31"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>168</v>
       </c>
@@ -6590,7 +6656,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>169</v>
       </c>
@@ -6601,7 +6667,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="31"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
@@ -6614,7 +6680,7 @@
       </c>
       <c r="G25" s="31"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>171</v>
       </c>
@@ -6627,7 +6693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>172</v>
       </c>
@@ -6638,7 +6704,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>173</v>
       </c>
@@ -6649,7 +6715,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>174</v>
       </c>
@@ -6660,7 +6726,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
@@ -6671,7 +6737,7 @@
       <c r="F30" s="10"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6698,18 +6764,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>203</v>
       </c>
@@ -6723,7 +6789,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>159</v>
       </c>
@@ -6748,18 +6814,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
@@ -6767,19 +6833,19 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B3" s="31"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="31"/>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -6802,18 +6868,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>210</v>
       </c>
@@ -6824,7 +6890,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -6835,7 +6901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -6864,18 +6930,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -6889,7 +6955,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6897,7 +6963,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -6905,7 +6971,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -6913,7 +6979,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -6921,7 +6987,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -6929,7 +6995,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -6955,12 +7021,12 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>213</v>
       </c>
@@ -6968,7 +7034,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -6982,7 +7048,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -6990,7 +7056,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -7000,7 +7066,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -7008,7 +7074,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -7018,7 +7084,7 @@
       </c>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -7028,7 +7094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -7052,33 +7118,33 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="92.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="0.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="48" width="9.28515625" style="1"/>
-    <col min="49" max="49" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="92.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="48" width="9.33203125" style="1"/>
+    <col min="49" max="49" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:52" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -7098,7 +7164,7 @@
       <c r="J2" s="73"/>
       <c r="K2" s="75"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>49</v>
       </c>
@@ -7128,7 +7194,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>56</v>
       </c>
@@ -7152,7 +7218,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="65"/>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>61</v>
       </c>
@@ -7170,7 +7236,7 @@
       <c r="J5" s="64"/>
       <c r="K5" s="66"/>
     </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>
@@ -7194,7 +7260,7 @@
       <c r="J6" s="64"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>68</v>
       </c>
@@ -7218,7 +7284,7 @@
       <c r="J7" s="64"/>
       <c r="K7" s="66"/>
     </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>73</v>
       </c>
@@ -7257,7 +7323,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:52" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:52" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29" t="s">
         <v>77</v>
       </c>
@@ -7308,7 +7374,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AT10" s="1" t="s">
         <v>54</v>
       </c>
@@ -7331,7 +7397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU11" s="1" t="s">
         <v>87</v>
       </c>
@@ -7339,7 +7405,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
       <c r="AU12" s="1" t="s">
         <v>59</v>
       </c>
@@ -7387,17 +7453,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
@@ -7411,7 +7477,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>132</v>
       </c>
@@ -7421,7 +7487,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>133</v>
       </c>
@@ -7431,7 +7497,7 @@
       </c>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>134</v>
       </c>
@@ -7457,18 +7523,18 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -7491,7 +7557,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -7502,7 +7568,7 @@
       <c r="F3" s="9"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -7513,7 +7579,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -7524,7 +7590,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -7535,7 +7601,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -7546,7 +7612,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -7574,18 +7640,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
@@ -7599,7 +7665,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7607,7 +7673,7 @@
       <c r="C3" s="9"/>
       <c r="D3" s="31"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7615,7 +7681,7 @@
       <c r="C4" s="9"/>
       <c r="D4" s="31"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7623,7 +7689,7 @@
       <c r="C5" s="9"/>
       <c r="D5" s="31"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7631,7 +7697,7 @@
       <c r="C6" s="9"/>
       <c r="D6" s="31"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7639,7 +7705,7 @@
       <c r="C7" s="9"/>
       <c r="D7" s="31"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7647,7 +7713,7 @@
       <c r="C8" s="9"/>
       <c r="D8" s="31"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7655,7 +7721,7 @@
       <c r="C9" s="9"/>
       <c r="D9" s="31"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7663,7 +7729,7 @@
       <c r="C10" s="9"/>
       <c r="D10" s="31"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -7671,7 +7737,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="31"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -7679,7 +7745,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="31"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -7687,7 +7753,7 @@
       <c r="C13" s="9"/>
       <c r="D13" s="31"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -7695,7 +7761,7 @@
       <c r="C14" s="9"/>
       <c r="D14" s="31"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -7703,7 +7769,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="31"/>
     </row>
-    <row r="16" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -7729,18 +7795,18 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>210</v>
       </c>
@@ -7751,7 +7817,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>129</v>
       </c>
@@ -7762,7 +7828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>130</v>
       </c>
@@ -7790,18 +7856,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
@@ -7821,7 +7887,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -7841,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -7861,7 +7927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -7881,7 +7947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -7901,7 +7967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -7921,7 +7987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -7941,7 +8007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -7961,7 +8027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -7981,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -8001,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -8021,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -8041,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -8061,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -8081,7 +8147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -8118,18 +8184,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -8149,7 +8215,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8169,7 +8235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8189,7 +8255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8226,18 +8292,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -8251,7 +8317,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8259,7 +8325,7 @@
       <c r="C3" s="32"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8267,7 +8333,7 @@
       <c r="C4" s="32"/>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8292,18 +8358,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -8311,7 +8377,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>119</v>
       </c>
@@ -8332,24 +8398,24 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="53" width="9.28515625" style="1"/>
-    <col min="54" max="54" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="53" width="9.33203125" style="1"/>
+    <col min="54" max="54" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Water Demand for Completions Sites over ",VLOOKUP("decision period", Units!$A$2:$B$9, 2, FALSE),"s [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Water Demand for Completions Sites over weeks [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -8510,7 +8576,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -8673,7 +8739,7 @@
       <c r="BB3" s="91"/>
       <c r="BC3" s="91"/>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -8837,7 +8903,7 @@
       <c r="BC4" s="91"/>
       <c r="BD4" s="83"/>
     </row>
-    <row r="5" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -8985,10 +9051,10 @@
       <c r="BC5" s="90"/>
       <c r="BD5" s="82"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B9" s="51"/>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.3">
       <c r="F10" s="12"/>
     </row>
   </sheetData>
@@ -9007,22 +9073,22 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Production Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Production Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>198</v>
       </c>
@@ -9183,7 +9249,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -9396,7 +9462,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -9609,7 +9675,7 @@
         <v>3260.9352996327957</v>
       </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -9822,7 +9888,7 @@
         <v>2979.1279159518585</v>
       </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -10035,7 +10101,7 @@
         <v>1848.0338796369435</v>
       </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -10248,7 +10314,7 @@
         <v>1441.8869978578632</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -10460,7 +10526,7 @@
         <v>3575.8350056831673</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -10673,7 +10739,7 @@
         <v>3056.3212211693481</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -10886,7 +10952,7 @@
         <v>2802.9780084908152</v>
       </c>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -11099,7 +11165,7 @@
         <v>2180.7671782733241</v>
       </c>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -11312,7 +11378,7 @@
         <v>2722.3915096839892</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -11525,7 +11591,7 @@
         <v>1494.1627838751133</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -11738,7 +11804,7 @@
         <v>1603.7712112255813</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -11951,7 +12017,7 @@
         <v>1421.1498787463106</v>
       </c>
     </row>
-    <row r="16" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="29" t="s">
         <v>102</v>
       </c>
@@ -12164,14 +12230,14 @@
         <v>1914.5624796833633</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="50"/>
       <c r="C17" s="51"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="51"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="51"/>
     </row>
   </sheetData>
@@ -12192,90 +12258,90 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>90</v>
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>102</v>
       </c>
@@ -12296,23 +12362,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="15" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="23" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="15" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="23" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Flowback Rate Forecasts by Pads [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Flowback Rate Forecasts by Pads [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -12473,7 +12539,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -12650,7 +12716,7 @@
         <v>8798.9121441519601</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -12755,7 +12821,7 @@
         <v>12125.732532083186</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -12812,10 +12878,10 @@
       <c r="AZ5" s="38"/>
       <c r="BA5" s="39"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F7" s="12"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="51"/>
     </row>
@@ -12833,22 +12899,22 @@
   </sheetPr>
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Pipeline Capacity between Sites [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Pipeline Capacity between Sites [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -12988,7 +13054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -13128,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -13268,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -13408,7 +13474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -13548,7 +13614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -13688,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -13828,7 +13894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -13968,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -14108,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -14248,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -14388,7 +14454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -14528,7 +14594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -14668,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -14808,7 +14874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -14948,7 +15014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -15088,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -15228,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -15368,7 +15434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>148</v>
       </c>
@@ -15508,7 +15574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>149</v>
       </c>
@@ -15646,7 +15712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>150</v>
       </c>
@@ -15784,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>151</v>
       </c>
@@ -15922,7 +15988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>152</v>
       </c>
@@ -16060,7 +16126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>153</v>
       </c>
@@ -16198,7 +16264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>154</v>
       </c>
@@ -16336,7 +16402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>155</v>
       </c>
@@ -16472,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>156</v>
       </c>
@@ -16612,7 +16678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>157</v>
       </c>
@@ -16752,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>158</v>
       </c>
@@ -16892,7 +16958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>159</v>
       </c>
@@ -17032,7 +17098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>160</v>
       </c>
@@ -17172,7 +17238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>161</v>
       </c>
@@ -17312,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>162</v>
       </c>
@@ -17452,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>163</v>
       </c>
@@ -17590,7 +17656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>164</v>
       </c>
@@ -17730,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>165</v>
       </c>
@@ -17870,7 +17936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>166</v>
       </c>
@@ -18008,7 +18074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>167</v>
       </c>
@@ -18148,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>168</v>
       </c>
@@ -18286,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>169</v>
       </c>
@@ -18422,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="14.7" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>170</v>
       </c>
@@ -18560,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>171</v>
       </c>
@@ -18698,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>172</v>
       </c>
@@ -18836,7 +18902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>173</v>
       </c>
@@ -18974,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>174</v>
       </c>
@@ -19112,7 +19178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>175</v>
       </c>
@@ -19248,7 +19314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -19388,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -19528,7 +19594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -19668,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="28" t="s">
         <v>129</v>
       </c>
@@ -19808,7 +19874,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="28" t="s">
         <v>130</v>
       </c>
@@ -19948,7 +20014,7 @@
         <v>42857</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="59" t="s">
         <v>136</v>
       </c>
@@ -20088,7 +20154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -20228,7 +20294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -20368,7 +20434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -20508,7 +20574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>140</v>
       </c>
@@ -20648,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -20805,19 +20871,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Disposal Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Disposal Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>276</v>
       </c>
@@ -20825,7 +20891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -20833,7 +20899,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -20841,7 +20907,7 @@
         <v>9285.7142857143008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -20849,7 +20915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -20858,7 +20924,7 @@
       </c>
       <c r="C6" s="50"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -20883,19 +20949,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
@@ -20903,7 +20969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -20911,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -20919,7 +20985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -20944,19 +21010,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="14.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Treatment Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Treatment Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -20973,7 +21039,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -20990,7 +21056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -21007,7 +21073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -21024,7 +21090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -21041,7 +21107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -21058,7 +21124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -21092,13 +21158,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Sourcing Availability [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Sourcing Availability [bbl/day]</v>
@@ -21122,7 +21188,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>210</v>
       </c>
@@ -21283,7 +21349,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -21496,7 +21562,7 @@
         <v>49999.999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -21709,7 +21775,7 @@
         <v>30000.000000000025</v>
       </c>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
       <c r="F15" s="12"/>
     </row>
   </sheetData>
@@ -21730,20 +21796,20 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Completions Pad Storage Capacity [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -21751,7 +21817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -21759,7 +21825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -21767,7 +21833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -21792,19 +21858,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.5546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pad Offloading Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pad Offloading Capacity [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -21812,7 +21878,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -21820,7 +21886,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -21845,20 +21911,20 @@
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Node Capacity Capacity [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]", " *absence of node or empty cell signifies no max capacity")</f>
         <v>Table of Node Capacity Capacity [bbl/day] *absence of node or empty cell signifies no max capacity</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -21866,175 +21932,175 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B3" s="37"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B4" s="37"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B5" s="37"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B6" s="37"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B7" s="37"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B8" s="37"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="37"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B10" s="37"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B11" s="37"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B12" s="37"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B13" s="37"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B14" s="37"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B15" s="37"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B16" s="37"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B17" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B18" s="37"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B19" s="37"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B20" s="37"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B21" s="37"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B22" s="37"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B23" s="37"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B24" s="37"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>170</v>
       </c>
       <c r="B25" s="37"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>171</v>
       </c>
       <c r="B26" s="37"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>172</v>
       </c>
       <c r="B27" s="37"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>173</v>
       </c>
       <c r="B28" s="37"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>174</v>
       </c>
       <c r="B29" s="37"/>
     </row>
-    <row r="30" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
         <v>175</v>
       </c>
       <c r="B30" s="39"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="108"/>
     </row>
@@ -22053,21 +22119,21 @@
   <sheetViews>
     <sheetView showZeros="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Operating Capacity of Disposal Site [%]")</f>
         <v>Operating Capacity of Disposal Site [%]</v>
       </c>
     </row>
-    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>276</v>
       </c>
@@ -22228,7 +22294,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -22389,7 +22455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -22550,7 +22616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -22711,7 +22777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -22873,7 +22939,7 @@
       </c>
       <c r="BD6" s="83"/>
     </row>
-    <row r="7" spans="1:56" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:56" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -23036,10 +23102,10 @@
       <c r="BB7" s="8"/>
       <c r="BD7" s="82"/>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.3">
       <c r="B11" s="51"/>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.3">
       <c r="D12" s="1" t="s">
         <v>296</v>
       </c>
@@ -23059,40 +23125,40 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="3.5546875" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.33203125" style="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5546875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="12"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>107</v>
       </c>
@@ -23100,52 +23166,52 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>117</v>
       </c>
@@ -23166,19 +23232,19 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="11.88671875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>276</v>
       </c>
@@ -23186,7 +23252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -23194,7 +23260,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -23202,7 +23268,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -23210,7 +23276,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -23218,7 +23284,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -23244,20 +23310,20 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -23268,7 +23334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -23280,7 +23346,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -23291,7 +23357,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -23302,7 +23368,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -23313,7 +23379,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -23324,7 +23390,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>141</v>
       </c>
@@ -23335,7 +23401,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>136</v>
       </c>
@@ -23346,7 +23412,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>137</v>
       </c>
@@ -23357,7 +23423,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>138</v>
       </c>
@@ -23368,7 +23434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>139</v>
       </c>
@@ -23379,7 +23445,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>140</v>
       </c>
@@ -23390,7 +23456,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>141</v>
       </c>
@@ -23401,7 +23467,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>136</v>
       </c>
@@ -23412,7 +23478,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>137</v>
       </c>
@@ -23423,7 +23489,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>138</v>
       </c>
@@ -23434,7 +23500,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>139</v>
       </c>
@@ -23445,7 +23511,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>140</v>
       </c>
@@ -23456,7 +23522,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>141</v>
       </c>
@@ -23467,7 +23533,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>136</v>
       </c>
@@ -23478,7 +23544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>137</v>
       </c>
@@ -23489,7 +23555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>138</v>
       </c>
@@ -23500,7 +23566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>139</v>
       </c>
@@ -23511,7 +23577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>140</v>
       </c>
@@ -23522,7 +23588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>141</v>
       </c>
@@ -23550,19 +23616,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="17.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Reuse Operational Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Reuse Operational Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -23570,7 +23636,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -23578,7 +23644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -23586,7 +23652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" s="8" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -23611,20 +23677,20 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Operational Cost between Sites [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Operational Cost between Sites [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -23764,7 +23830,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -23904,7 +23970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -24044,7 +24110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -24184,7 +24250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -24324,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -24464,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -24604,7 +24670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -24744,7 +24810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -24884,7 +24950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -25024,7 +25090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -25164,7 +25230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -25304,7 +25370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -25444,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -25584,7 +25650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -25724,7 +25790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -25864,7 +25930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -26004,7 +26070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -26144,7 +26210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>148</v>
       </c>
@@ -26284,7 +26350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>149</v>
       </c>
@@ -26424,7 +26490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>150</v>
       </c>
@@ -26564,7 +26630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>151</v>
       </c>
@@ -26704,7 +26770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>152</v>
       </c>
@@ -26844,7 +26910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>153</v>
       </c>
@@ -26984,7 +27050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>154</v>
       </c>
@@ -27124,7 +27190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>155</v>
       </c>
@@ -27264,7 +27330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>156</v>
       </c>
@@ -27404,7 +27470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>157</v>
       </c>
@@ -27544,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>158</v>
       </c>
@@ -27684,7 +27750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>159</v>
       </c>
@@ -27824,7 +27890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>160</v>
       </c>
@@ -27964,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>161</v>
       </c>
@@ -28104,7 +28170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>162</v>
       </c>
@@ -28244,7 +28310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>163</v>
       </c>
@@ -28384,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>164</v>
       </c>
@@ -28524,7 +28590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>165</v>
       </c>
@@ -28664,7 +28730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>166</v>
       </c>
@@ -28804,7 +28870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>167</v>
       </c>
@@ -28944,7 +29010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>168</v>
       </c>
@@ -29084,7 +29150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>169</v>
       </c>
@@ -29224,7 +29290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>170</v>
       </c>
@@ -29364,7 +29430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>171</v>
       </c>
@@ -29504,7 +29570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>172</v>
       </c>
@@ -29644,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>173</v>
       </c>
@@ -29784,7 +29850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>174</v>
       </c>
@@ -29924,7 +29990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>175</v>
       </c>
@@ -30064,7 +30130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -30204,7 +30270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -30344,7 +30410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -30484,7 +30550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -30624,7 +30690,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -30764,7 +30830,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A53" s="28" t="s">
         <v>136</v>
       </c>
@@ -30904,7 +30970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -31044,7 +31110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -31184,7 +31250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -31324,7 +31390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>140</v>
       </c>
@@ -31464,7 +31530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -31620,19 +31686,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Freshwater Souring Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Freshwater Souring Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>210</v>
       </c>
@@ -31640,7 +31706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>129</v>
       </c>
@@ -31648,7 +31714,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>130</v>
       </c>
@@ -31671,18 +31737,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Trucking Hourly Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", "hour","]")</f>
         <v>Table of Trucking Hourly Cost [USD/hour]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -31690,7 +31756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -31698,7 +31764,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -31706,7 +31772,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -31714,7 +31780,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -31722,7 +31788,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -31730,7 +31796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -31738,7 +31804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -31746,7 +31812,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -31754,7 +31820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -31762,7 +31828,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -31770,7 +31836,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -31778,7 +31844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -31786,7 +31852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -31794,7 +31860,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="84" t="s">
         <v>102</v>
       </c>
@@ -31802,7 +31868,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -31810,7 +31876,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -31818,7 +31884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -31826,7 +31892,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>129</v>
       </c>
@@ -31834,7 +31900,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>130</v>
       </c>
@@ -31858,17 +31924,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>275</v>
       </c>
@@ -31888,7 +31954,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>89</v>
       </c>
@@ -31908,7 +31974,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>90</v>
       </c>
@@ -31928,7 +31994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>91</v>
       </c>
@@ -31948,7 +32014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>92</v>
       </c>
@@ -31968,7 +32034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>93</v>
       </c>
@@ -31988,7 +32054,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>94</v>
       </c>
@@ -32008,7 +32074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>95</v>
       </c>
@@ -32028,7 +32094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>96</v>
       </c>
@@ -32048,7 +32114,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>97</v>
       </c>
@@ -32068,7 +32134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>98</v>
       </c>
@@ -32088,7 +32154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>99</v>
       </c>
@@ -32108,7 +32174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>100</v>
       </c>
@@ -32128,7 +32194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>101</v>
       </c>
@@ -32148,7 +32214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="120" t="s">
         <v>102</v>
       </c>
@@ -32168,7 +32234,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>119</v>
       </c>
@@ -32188,7 +32254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>120</v>
       </c>
@@ -32208,7 +32274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>121</v>
       </c>
@@ -32245,19 +32311,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Disposal Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>276</v>
       </c>
@@ -32274,7 +32340,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
@@ -32291,7 +32357,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
@@ -32308,7 +32374,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
@@ -32325,7 +32391,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
@@ -32342,7 +32408,7 @@
         <v>99999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>127</v>
       </c>
@@ -32377,19 +32443,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>280</v>
       </c>
@@ -32397,7 +32463,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>193</v>
       </c>
@@ -32405,7 +32471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>194</v>
       </c>
@@ -32413,7 +32479,7 @@
         <v>7143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>195</v>
       </c>
@@ -32421,7 +32487,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>196</v>
       </c>
@@ -32446,19 +32512,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="13.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Cost [USD/bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>215</v>
       </c>
@@ -32475,7 +32541,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>132</v>
       </c>
@@ -32492,7 +32558,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -32509,7 +32575,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -32541,30 +32607,30 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
@@ -32572,7 +32638,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
@@ -32595,19 +32661,19 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Storage Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Storage Capacity Expansion Increments [bbl]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>281</v>
       </c>
@@ -32615,7 +32681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>183</v>
       </c>
@@ -32623,7 +32689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>184</v>
       </c>
@@ -32631,7 +32697,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>185</v>
       </c>
@@ -32639,7 +32705,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>186</v>
       </c>
@@ -32664,20 +32730,20 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Treatment Capacity Expansion Cost [USD/(bbl/day)]</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -32697,7 +32763,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -32717,7 +32783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -32737,7 +32803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -32757,7 +32823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -32777,7 +32843,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -32797,7 +32863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="84" t="s">
         <v>141</v>
       </c>
@@ -32817,7 +32883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>136</v>
       </c>
@@ -32837,7 +32903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>137</v>
       </c>
@@ -32857,7 +32923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>138</v>
       </c>
@@ -32877,7 +32943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>139</v>
       </c>
@@ -32897,7 +32963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>140</v>
       </c>
@@ -32917,7 +32983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="84" t="s">
         <v>141</v>
       </c>
@@ -32937,7 +33003,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>136</v>
       </c>
@@ -32957,7 +33023,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>137</v>
       </c>
@@ -32977,7 +33043,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>138</v>
       </c>
@@ -32997,7 +33063,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>139</v>
       </c>
@@ -33017,7 +33083,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>140</v>
       </c>
@@ -33037,7 +33103,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="84" t="s">
         <v>141</v>
       </c>
@@ -33057,7 +33123,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>136</v>
       </c>
@@ -33077,7 +33143,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>137</v>
       </c>
@@ -33097,7 +33163,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>138</v>
       </c>
@@ -33117,7 +33183,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>139</v>
       </c>
@@ -33137,7 +33203,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>140</v>
       </c>
@@ -33157,7 +33223,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>141</v>
       </c>
@@ -33194,21 +33260,21 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" style="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Treatment Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Treatment Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>282</v>
       </c>
@@ -33225,7 +33291,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>142</v>
       </c>
@@ -33242,7 +33308,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>143</v>
       </c>
@@ -33259,7 +33325,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>144</v>
       </c>
@@ -33276,7 +33342,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>145</v>
       </c>
@@ -33293,10 +33359,10 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="90"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C10" s="90"/>
     </row>
   </sheetData>
@@ -33316,19 +33382,19 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Pipeline Expansion Cost [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"-", VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Pipeline Expansion Cost [USD/(inch-mile)]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -33336,7 +33402,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29" t="s">
         <v>286</v>
       </c>
@@ -33362,9 +33428,9 @@
       <selection pane="bottomLeft" activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Expansion Distances [",VLOOKUP("distance", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Expansion Distances [mile]</v>
@@ -33373,7 +33439,7 @@
       <c r="C1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -33513,7 +33579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>89</v>
       </c>
@@ -33641,7 +33707,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -33769,7 +33835,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -33897,7 +33963,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -34025,7 +34091,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -34153,7 +34219,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -34281,7 +34347,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -34409,7 +34475,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -34537,7 +34603,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -34665,7 +34731,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -34793,7 +34859,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -34921,7 +34987,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -35049,7 +35115,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -35177,7 +35243,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -35305,7 +35371,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="59" t="s">
         <v>119</v>
       </c>
@@ -35428,7 +35494,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>120</v>
       </c>
@@ -35550,7 +35616,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="84" t="s">
         <v>121</v>
       </c>
@@ -35672,7 +35738,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>148</v>
       </c>
@@ -35792,7 +35858,7 @@
       <c r="AS20" s="9"/>
       <c r="AT20" s="31"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>149</v>
       </c>
@@ -35912,7 +35978,7 @@
       <c r="AS21" s="9"/>
       <c r="AT21" s="31"/>
     </row>
-    <row r="22" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>150</v>
       </c>
@@ -36032,7 +36098,7 @@
       <c r="AS22" s="9"/>
       <c r="AT22" s="31"/>
     </row>
-    <row r="23" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>151</v>
       </c>
@@ -36152,7 +36218,7 @@
       <c r="AS23" s="9"/>
       <c r="AT23" s="31"/>
     </row>
-    <row r="24" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>152</v>
       </c>
@@ -36272,7 +36338,7 @@
       <c r="AS24" s="9"/>
       <c r="AT24" s="31"/>
     </row>
-    <row r="25" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>153</v>
       </c>
@@ -36392,7 +36458,7 @@
       <c r="AS25" s="9"/>
       <c r="AT25" s="31"/>
     </row>
-    <row r="26" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>154</v>
       </c>
@@ -36512,7 +36578,7 @@
       <c r="AS26" s="9"/>
       <c r="AT26" s="31"/>
     </row>
-    <row r="27" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="28" t="s">
         <v>155</v>
       </c>
@@ -36630,7 +36696,7 @@
       <c r="AS27" s="9"/>
       <c r="AT27" s="31"/>
     </row>
-    <row r="28" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="28" t="s">
         <v>156</v>
       </c>
@@ -36750,7 +36816,7 @@
       <c r="AS28" s="9"/>
       <c r="AT28" s="31"/>
     </row>
-    <row r="29" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>157</v>
       </c>
@@ -36870,7 +36936,7 @@
       <c r="AS29" s="9"/>
       <c r="AT29" s="31"/>
     </row>
-    <row r="30" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="28" t="s">
         <v>158</v>
       </c>
@@ -36990,7 +37056,7 @@
       <c r="AS30" s="9"/>
       <c r="AT30" s="31"/>
     </row>
-    <row r="31" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>159</v>
       </c>
@@ -37110,7 +37176,7 @@
       <c r="AS31" s="9"/>
       <c r="AT31" s="31"/>
     </row>
-    <row r="32" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="28" t="s">
         <v>160</v>
       </c>
@@ -37230,7 +37296,7 @@
       <c r="AS32" s="9"/>
       <c r="AT32" s="31"/>
     </row>
-    <row r="33" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="28" t="s">
         <v>161</v>
       </c>
@@ -37350,7 +37416,7 @@
       <c r="AS33" s="9"/>
       <c r="AT33" s="31"/>
     </row>
-    <row r="34" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="28" t="s">
         <v>162</v>
       </c>
@@ -37470,7 +37536,7 @@
       <c r="AS34" s="9"/>
       <c r="AT34" s="31"/>
     </row>
-    <row r="35" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="28" t="s">
         <v>163</v>
       </c>
@@ -37590,7 +37656,7 @@
       <c r="AS35" s="9"/>
       <c r="AT35" s="31"/>
     </row>
-    <row r="36" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="28" t="s">
         <v>164</v>
       </c>
@@ -37710,7 +37776,7 @@
       <c r="AS36" s="9"/>
       <c r="AT36" s="31"/>
     </row>
-    <row r="37" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="28" t="s">
         <v>165</v>
       </c>
@@ -37830,7 +37896,7 @@
       <c r="AS37" s="9"/>
       <c r="AT37" s="31"/>
     </row>
-    <row r="38" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>166</v>
       </c>
@@ -37950,7 +38016,7 @@
       <c r="AS38" s="9"/>
       <c r="AT38" s="31"/>
     </row>
-    <row r="39" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="28" t="s">
         <v>167</v>
       </c>
@@ -38070,7 +38136,7 @@
       <c r="AS39" s="9"/>
       <c r="AT39" s="31"/>
     </row>
-    <row r="40" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="28" t="s">
         <v>168</v>
       </c>
@@ -38190,7 +38256,7 @@
       <c r="AS40" s="9"/>
       <c r="AT40" s="31"/>
     </row>
-    <row r="41" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="28" t="s">
         <v>169</v>
       </c>
@@ -38310,7 +38376,7 @@
       <c r="AS41" s="9"/>
       <c r="AT41" s="31"/>
     </row>
-    <row r="42" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="28" t="s">
         <v>170</v>
       </c>
@@ -38432,7 +38498,7 @@
       <c r="AS42" s="9"/>
       <c r="AT42" s="31"/>
     </row>
-    <row r="43" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="28" t="s">
         <v>171</v>
       </c>
@@ -38552,7 +38618,7 @@
       <c r="AS43" s="9"/>
       <c r="AT43" s="31"/>
     </row>
-    <row r="44" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="28" t="s">
         <v>172</v>
       </c>
@@ -38672,7 +38738,7 @@
       <c r="AS44" s="9"/>
       <c r="AT44" s="31"/>
     </row>
-    <row r="45" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>173</v>
       </c>
@@ -38790,7 +38856,7 @@
       <c r="AS45" s="9"/>
       <c r="AT45" s="31"/>
     </row>
-    <row r="46" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="28" t="s">
         <v>174</v>
       </c>
@@ -38910,7 +38976,7 @@
       <c r="AS46" s="9"/>
       <c r="AT46" s="31"/>
     </row>
-    <row r="47" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="28" t="s">
         <v>175</v>
       </c>
@@ -39026,7 +39092,7 @@
       <c r="AS47" s="9"/>
       <c r="AT47" s="31"/>
     </row>
-    <row r="48" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="59" t="s">
         <v>132</v>
       </c>
@@ -39078,7 +39144,7 @@
       <c r="AS48" s="96"/>
       <c r="AT48" s="104"/>
     </row>
-    <row r="49" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="28" t="s">
         <v>133</v>
       </c>
@@ -39130,7 +39196,7 @@
       </c>
       <c r="AT49" s="31"/>
     </row>
-    <row r="50" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="84" t="s">
         <v>134</v>
       </c>
@@ -39232,7 +39298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="59" t="s">
         <v>129</v>
       </c>
@@ -39360,7 +39426,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="84" t="s">
         <v>130</v>
       </c>
@@ -39488,7 +39554,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="59" t="s">
         <v>136</v>
       </c>
@@ -39608,7 +39674,7 @@
       <c r="AS53" s="9"/>
       <c r="AT53" s="31"/>
     </row>
-    <row r="54" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="28" t="s">
         <v>137</v>
       </c>
@@ -39726,7 +39792,7 @@
       <c r="AS54" s="9"/>
       <c r="AT54" s="31"/>
     </row>
-    <row r="55" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="28" t="s">
         <v>138</v>
       </c>
@@ -39778,7 +39844,7 @@
       <c r="AS55" s="9"/>
       <c r="AT55" s="31"/>
     </row>
-    <row r="56" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="28" t="s">
         <v>139</v>
       </c>
@@ -39832,7 +39898,7 @@
       <c r="AS56" s="9"/>
       <c r="AT56" s="31"/>
     </row>
-    <row r="57" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="28" t="s">
         <v>140</v>
       </c>
@@ -39886,7 +39952,7 @@
       <c r="AS57" s="9"/>
       <c r="AT57" s="31"/>
     </row>
-    <row r="58" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:46" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="29" t="s">
         <v>141</v>
       </c>
@@ -39954,9 +40020,9 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Costs [",VLOOKUP("currency", Units!$A$2:$B$9, 2, FALSE),"/(", VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),")]")</f>
         <v>Table of Pipeline Capacity Expansion Costs [USD/(bbl/day)]</v>
@@ -39965,7 +40031,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>275</v>
       </c>
@@ -39988,7 +40054,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>157</v>
       </c>
@@ -40011,7 +40077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>159</v>
       </c>
@@ -40034,7 +40100,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>156</v>
       </c>
@@ -40057,7 +40123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>158</v>
       </c>
@@ -40097,19 +40163,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$9, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>279</v>
       </c>
@@ -40117,7 +40183,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>177</v>
       </c>
@@ -40125,7 +40191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>178</v>
       </c>
@@ -40133,7 +40199,7 @@
         <v>14285.714285714286</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>179</v>
       </c>
@@ -40141,7 +40207,7 @@
         <v>35714.285714285717</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>180</v>
       </c>
@@ -40149,7 +40215,7 @@
         <v>42857.142857142855</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>181</v>
       </c>
@@ -40174,19 +40240,19 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="2" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Pipeline Diameters [",VLOOKUP("diameter", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Pipeline Diameters [inch]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>279</v>
       </c>
@@ -40194,7 +40260,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>177</v>
       </c>
@@ -40202,7 +40268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>178</v>
       </c>
@@ -40210,7 +40276,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>179</v>
       </c>
@@ -40218,7 +40284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>180</v>
       </c>
@@ -40226,7 +40292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29" t="s">
         <v>181</v>
       </c>
@@ -40251,18 +40317,18 @@
       <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -40273,7 +40339,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -40284,7 +40350,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -40295,7 +40361,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -40306,7 +40372,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -40317,7 +40383,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -40328,7 +40394,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>141</v>
       </c>
@@ -40339,7 +40405,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>136</v>
       </c>
@@ -40350,7 +40416,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>137</v>
       </c>
@@ -40361,7 +40427,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>138</v>
       </c>
@@ -40372,7 +40438,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>139</v>
       </c>
@@ -40383,7 +40449,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>140</v>
       </c>
@@ -40394,7 +40460,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>141</v>
       </c>
@@ -40405,7 +40471,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>136</v>
       </c>
@@ -40416,7 +40482,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>137</v>
       </c>
@@ -40427,7 +40493,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>138</v>
       </c>
@@ -40438,7 +40504,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>139</v>
       </c>
@@ -40449,7 +40515,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>140</v>
       </c>
@@ -40460,7 +40526,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>141</v>
       </c>
@@ -40471,7 +40537,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>136</v>
       </c>
@@ -40482,7 +40548,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>137</v>
       </c>
@@ -40493,7 +40559,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>138</v>
       </c>
@@ -40504,7 +40570,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>139</v>
       </c>
@@ -40515,7 +40581,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>140</v>
       </c>
@@ -40526,7 +40592,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>141</v>
       </c>
@@ -40553,14 +40619,14 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -40571,7 +40637,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -40582,7 +40648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -40593,7 +40659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -40604,7 +40670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -40615,7 +40681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -40626,7 +40692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>141</v>
       </c>
@@ -40637,7 +40703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>136</v>
       </c>
@@ -40648,7 +40714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>137</v>
       </c>
@@ -40659,7 +40725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>138</v>
       </c>
@@ -40670,7 +40736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>139</v>
       </c>
@@ -40681,7 +40747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>140</v>
       </c>
@@ -40692,7 +40758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>141</v>
       </c>
@@ -40703,7 +40769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>136</v>
       </c>
@@ -40714,7 +40780,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>137</v>
       </c>
@@ -40725,7 +40791,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>138</v>
       </c>
@@ -40736,7 +40802,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>139</v>
       </c>
@@ -40747,7 +40813,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
         <v>140</v>
       </c>
@@ -40758,7 +40824,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="28" t="s">
         <v>141</v>
       </c>
@@ -40769,7 +40835,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="28" t="s">
         <v>136</v>
       </c>
@@ -40780,7 +40846,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>137</v>
       </c>
@@ -40791,7 +40857,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>138</v>
       </c>
@@ -40802,7 +40868,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
         <v>139</v>
       </c>
@@ -40813,7 +40879,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="28" t="s">
         <v>140</v>
       </c>
@@ -40824,7 +40890,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="29" t="s">
         <v>141</v>
       </c>
@@ -40849,43 +40915,43 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="4.42578125" style="1" customWidth="1"/>
-    <col min="5" max="14" width="9.28515625" style="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.5703125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="4.44140625" style="1" customWidth="1"/>
+    <col min="5" max="14" width="9.33203125" style="1"/>
+    <col min="15" max="15" width="12.109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.5546875" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
@@ -40908,17 +40974,17 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>278</v>
       </c>
@@ -40926,7 +40992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="123" t="s">
         <v>142</v>
       </c>
@@ -40934,7 +41000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="123" t="s">
         <v>143</v>
       </c>
@@ -40942,7 +41008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="123" t="s">
         <v>144</v>
       </c>
@@ -40950,7 +41016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29" t="s">
         <v>145</v>
       </c>
@@ -40974,17 +41040,17 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>212</v>
       </c>
@@ -40992,7 +41058,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>136</v>
       </c>
@@ -41000,7 +41066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>137</v>
       </c>
@@ -41008,7 +41074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>138</v>
       </c>
@@ -41016,7 +41082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>139</v>
       </c>
@@ -41024,7 +41090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>140</v>
       </c>
@@ -41032,7 +41098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29" t="s">
         <v>141</v>
       </c>
@@ -41056,17 +41122,17 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -41074,7 +41140,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -41082,7 +41148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>120</v>
       </c>
@@ -41090,7 +41156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>121</v>
       </c>
@@ -41114,17 +41180,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -41132,7 +41198,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>289</v>
       </c>
@@ -41140,7 +41206,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>290</v>
       </c>
@@ -41164,17 +41230,17 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
@@ -41182,7 +41248,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>292</v>
       </c>
@@ -41190,7 +41256,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>293</v>
       </c>
@@ -41214,24 +41280,24 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>294</v>
       </c>
@@ -41239,7 +41305,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>89</v>
       </c>
@@ -41247,7 +41313,7 @@
         <v>142277</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>90</v>
       </c>
@@ -41255,7 +41321,7 @@
         <v>140998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>91</v>
       </c>
@@ -41263,7 +41329,7 @@
         <v>172490.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>92</v>
       </c>
@@ -41271,7 +41337,7 @@
         <v>257547</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="28" t="s">
         <v>93</v>
       </c>
@@ -41279,7 +41345,7 @@
         <v>241833.8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="28" t="s">
         <v>94</v>
       </c>
@@ -41287,7 +41353,7 @@
         <v>188503.7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>95</v>
       </c>
@@ -41295,7 +41361,7 @@
         <v>146716</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>96</v>
       </c>
@@ -41303,7 +41369,7 @@
         <v>216563</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>97</v>
       </c>
@@ -41311,7 +41377,7 @@
         <v>150626</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="28" t="s">
         <v>98</v>
       </c>
@@ -41319,7 +41385,7 @@
         <v>247061</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>99</v>
       </c>
@@ -41327,7 +41393,7 @@
         <v>180968</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>100</v>
       </c>
@@ -41335,7 +41401,7 @@
         <v>195584</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="28" t="s">
         <v>101</v>
       </c>
@@ -41343,7 +41409,7 @@
         <v>148655</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="28" t="s">
         <v>102</v>
       </c>
@@ -41351,7 +41417,7 @@
         <v>185369</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="28" t="s">
         <v>119</v>
       </c>
@@ -41359,7 +41425,7 @@
         <v>165376</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="29" t="s">
         <v>120</v>
       </c>
@@ -41384,18 +41450,18 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>294</v>
       </c>
@@ -41403,7 +41469,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="59" t="s">
         <v>132</v>
       </c>
@@ -41411,7 +41477,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
         <v>133</v>
       </c>
@@ -41419,7 +41485,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29" t="s">
         <v>134</v>
       </c>
@@ -41444,19 +41510,19 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Initial Water Quality at Completions Pad Storage [",VLOOKUP("concentration", Units!$A$2:$B$9, 2, FALSE),"]")</f>
         <v>Table of Initial Water Quality at Completions Pad Storage [mg/liter]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>200</v>
       </c>
@@ -41464,7 +41530,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="28" t="s">
         <v>119</v>
       </c>
@@ -41472,7 +41538,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
         <v>120</v>
       </c>
@@ -41482,6 +41548,270 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60DC22DA-465C-43DD-A94A-78FB25B14443}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients ")</f>
+        <v xml:space="preserve">Table of Air Emissions Coefficients </v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" s="124">
+        <v>2035000</v>
+      </c>
+      <c r="C3" s="124">
+        <v>35.75</v>
+      </c>
+      <c r="D3" s="124">
+        <v>12649.999999999998</v>
+      </c>
+      <c r="E3" s="124">
+        <v>770.00000000000011</v>
+      </c>
+      <c r="F3" s="124">
+        <v>120.99999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4" s="124">
+        <v>22</v>
+      </c>
+      <c r="C4" s="124">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D4" s="124">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E4" s="124">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="F4" s="125">
+        <v>8.5999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5" s="124">
+        <v>310000000</v>
+      </c>
+      <c r="C5" s="124">
+        <v>2800</v>
+      </c>
+      <c r="D5" s="124">
+        <v>190000</v>
+      </c>
+      <c r="E5" s="124">
+        <v>100000</v>
+      </c>
+      <c r="F5" s="125">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6" s="124">
+        <v>970</v>
+      </c>
+      <c r="C6" s="124">
+        <v>0.13</v>
+      </c>
+      <c r="D6" s="124">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="124">
+        <v>2.8</v>
+      </c>
+      <c r="F6" s="125">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7" s="126">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="126">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D7" s="126">
+        <v>2</v>
+      </c>
+      <c r="E7" s="126">
+        <v>0.65</v>
+      </c>
+      <c r="F7" s="127">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E2F3C3C-544A-443F-8AB8-5B728919AF32}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]")</f>
+        <v>Table of Air Emissions Coefficients  for Treatment Technologies [emissions/volume time]</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="118" t="s">
+        <v>301</v>
+      </c>
+      <c r="C2" s="118" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="118" t="s">
+        <v>303</v>
+      </c>
+      <c r="E2" s="118" t="s">
+        <v>304</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="129" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="124">
+        <v>9600</v>
+      </c>
+      <c r="C3" s="124">
+        <v>1.45</v>
+      </c>
+      <c r="D3" s="124">
+        <v>12.8</v>
+      </c>
+      <c r="E3" s="124">
+        <v>13.5</v>
+      </c>
+      <c r="F3" s="125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="129" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="124">
+        <v>9600</v>
+      </c>
+      <c r="C4" s="124">
+        <v>1.45</v>
+      </c>
+      <c r="D4" s="124">
+        <v>12.8</v>
+      </c>
+      <c r="E4" s="124">
+        <v>13.5</v>
+      </c>
+      <c r="F4" s="125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="130" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="126">
+        <v>9600</v>
+      </c>
+      <c r="C5" s="126">
+        <v>1.45</v>
+      </c>
+      <c r="D5" s="126">
+        <v>12.8</v>
+      </c>
+      <c r="E5" s="126">
+        <v>13.5</v>
+      </c>
+      <c r="F5" s="127">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -41496,30 +41826,30 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>130</v>
       </c>
@@ -41545,30 +41875,30 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.33203125" style="1"/>
+    <col min="4" max="4" width="3.5546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="6" max="13" width="9.33203125" style="1"/>
+    <col min="14" max="14" width="12.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.44140625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>133</v>
       </c>
@@ -41576,7 +41906,7 @@
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>134</v>
       </c>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927102EB-811F-438A-BB04-8E8ED2485573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716C5406-D4EA-45C1-98EE-EEEADD318902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -29731,7 +29731,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -29741,8 +29741,8 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="str">
-        <f>CONCATENATE( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Beneficial Reuse Capacity [bbl/day]</v>
+        <f>CONCATENATE( "Table of Beneficial Reuse Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"] (leave cells blank to indicate infinite capacity)")</f>
+        <v>Table of Beneficial Reuse Capacity [bbl/day] (leave cells blank to indicate infinite capacity)</v>
       </c>
     </row>
   </sheetData>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\melodys\Documents\1. Projects\PARETO - Department of Energy\Code Updates\GIT Tracked Folder\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716C5406-D4EA-45C1-98EE-EEEADD318902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0F72A-AEF5-4C7C-B34B-FE62B3A25FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-11892" yWindow="12996" windowWidth="23256" windowHeight="12576" tabRatio="906" firstSheet="13" activeTab="13" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -102,7 +102,15 @@
     <sheet name="PadWaterQuality" sheetId="99" r:id="rId87"/>
     <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId88"/>
     <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId89"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId90"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId91"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId92"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId93"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId94"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId95"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="74" hidden="1">#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="74">PipelineExpansionDistance!$O$3</definedName>
@@ -128,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3751" uniqueCount="323">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1095,6 +1103,9 @@
   <si>
     <t>Treatment Sites to Storage Sites Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>pipeline_expansion_lead_time</t>
+  </si>
 </sst>
 </file>
 
@@ -1199,7 +1210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1697,6 +1708,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1704,7 +1739,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2008,6 +2043,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -2131,6 +2184,271 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Overview"/>
+      <sheetName val="Schematic"/>
+      <sheetName val="Units"/>
+      <sheetName val="ProductionPads"/>
+      <sheetName val="ProductionTanks"/>
+      <sheetName val="CompletionsPads"/>
+      <sheetName val="SWDSites"/>
+      <sheetName val="FreshwaterSources"/>
+      <sheetName val="StorageSites"/>
+      <sheetName val="TreatmentSites"/>
+      <sheetName val="TreatmentTechnologies"/>
+      <sheetName val="ReuseOptions"/>
+      <sheetName val="NetworkNodes"/>
+      <sheetName val="PipelineDiameters"/>
+      <sheetName val="StorageCapacities"/>
+      <sheetName val="TreatmentCapacities"/>
+      <sheetName val="InjectionCapacities"/>
+      <sheetName val="PNA"/>
+      <sheetName val="CNA"/>
+      <sheetName val="CCA"/>
+      <sheetName val="NNA"/>
+      <sheetName val="NCA"/>
+      <sheetName val="NKA"/>
+      <sheetName val="NRA"/>
+      <sheetName val="NSA"/>
+      <sheetName val="SNA"/>
+      <sheetName val="FCA"/>
+      <sheetName val="RCA"/>
+      <sheetName val="RSA"/>
+      <sheetName val="SCA"/>
+      <sheetName val="RNA"/>
+      <sheetName val="PCT"/>
+      <sheetName val="FCT"/>
+      <sheetName val="PKT"/>
+      <sheetName val="CKT"/>
+      <sheetName val="CCT"/>
+      <sheetName val="CST"/>
+      <sheetName val="Elevation"/>
+      <sheetName val="CompletionsDemand"/>
+      <sheetName val="PadRates"/>
+      <sheetName val="FlowbackRates"/>
+      <sheetName val="WellPressure"/>
+      <sheetName val="InitialPipelineCapacity"/>
+      <sheetName val="InitialPipelineDiameters"/>
+      <sheetName val="InitialDisposalCapacity"/>
+      <sheetName val="InitialStorageCapacity"/>
+      <sheetName val="InitialTreatmentCapacity"/>
+      <sheetName val="FreshwaterSourcingAvailability"/>
+      <sheetName val="CompletionsPadStorage"/>
+      <sheetName val="PadOffloadingCapacity"/>
+      <sheetName val="NodeCapacities"/>
+      <sheetName val="DisposalOperatingCapacity"/>
+      <sheetName val="DisposalOperationalCost"/>
+      <sheetName val="TreatmentOperationalCost"/>
+      <sheetName val="ReuseOperationalCost"/>
+      <sheetName val="PipelineOperationalCost"/>
+      <sheetName val="FreshSourcingCost"/>
+      <sheetName val="TruckingHourlyCost"/>
+      <sheetName val="TruckingTime"/>
+      <sheetName val="DisposalExpansionCost"/>
+      <sheetName val="DisposalCapacityIncrements"/>
+      <sheetName val="StorageExpansionCost"/>
+      <sheetName val="StorageCapacityIncrements"/>
+      <sheetName val="TreatmentExpansionCost"/>
+      <sheetName val="TreatmentCapacityIncrements"/>
+      <sheetName val="PipelineCapexDistanceBased"/>
+      <sheetName val="PipelineExpansionDistance"/>
+      <sheetName val="PipelineCapexCapacityBased"/>
+      <sheetName val="PipelineCapacityIncrements"/>
+      <sheetName val="PipelineDiameterValues"/>
+      <sheetName val="TreatmentEfficiency"/>
+      <sheetName val="RemovalEfficiency"/>
+      <sheetName val="DesalinationTechnologies"/>
+      <sheetName val="DesalinationSites"/>
+      <sheetName val="CompletionsPadOutsideSystem"/>
+      <sheetName val="Hydraulics"/>
+      <sheetName val="Economics"/>
+      <sheetName val="PadWaterQuality"/>
+      <sheetName val="StorageInitialWaterQuality"/>
+      <sheetName val="PadStorageInitialWaterQuality"/>
+      <sheetName val="TreatmentExpansionLeadTime"/>
+      <sheetName val="DisposalExpansionLeadTime"/>
+      <sheetName val="StorageExpansionLeadTime"/>
+      <sheetName val="PipelineExpansionLeadTime_Dist"/>
+      <sheetName val="PipelineExpansionLeadTime_Capac"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>INDEX</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>VALUE</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>volume</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>bbl</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>distance</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>mile</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>diameter</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>inch</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>concentration</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>mg/liter</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>currency</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>USD</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>time</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>day</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>pressure</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>psi</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>elevation</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>foot</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>decision period</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>week</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="44"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="49"/>
+      <sheetData sheetId="50"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="52"/>
+      <sheetData sheetId="53"/>
+      <sheetData sheetId="54"/>
+      <sheetData sheetId="55"/>
+      <sheetData sheetId="56"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="59"/>
+      <sheetData sheetId="60"/>
+      <sheetData sheetId="61"/>
+      <sheetData sheetId="62"/>
+      <sheetData sheetId="63"/>
+      <sheetData sheetId="64"/>
+      <sheetData sheetId="65"/>
+      <sheetData sheetId="66"/>
+      <sheetData sheetId="67"/>
+      <sheetData sheetId="68"/>
+      <sheetData sheetId="69"/>
+      <sheetData sheetId="70"/>
+      <sheetData sheetId="71"/>
+      <sheetData sheetId="72"/>
+      <sheetData sheetId="73"/>
+      <sheetData sheetId="74"/>
+      <sheetData sheetId="75"/>
+      <sheetData sheetId="76"/>
+      <sheetData sheetId="77"/>
+      <sheetData sheetId="78"/>
+      <sheetData sheetId="79"/>
+      <sheetData sheetId="80"/>
+      <sheetData sheetId="81"/>
+      <sheetData sheetId="82"/>
+      <sheetData sheetId="83"/>
+      <sheetData sheetId="84"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2435,7 +2753,7 @@
   </sheetPr>
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3065,7 +3383,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3348,8 +3666,8 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -45378,4 +45696,914 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20713590-CD4E-426A-8C22-B5174AF6B7C1}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Treatment Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Treatment Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>211</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <v>68</v>
+      </c>
+      <c r="E3" s="36">
+        <v>70</v>
+      </c>
+      <c r="F3" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>68</v>
+      </c>
+      <c r="E4" s="36">
+        <v>70</v>
+      </c>
+      <c r="F4" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>68</v>
+      </c>
+      <c r="E5" s="36">
+        <v>70</v>
+      </c>
+      <c r="F5" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36">
+        <v>68</v>
+      </c>
+      <c r="E6" s="36">
+        <v>70</v>
+      </c>
+      <c r="F6" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>68</v>
+      </c>
+      <c r="E7" s="36">
+        <v>70</v>
+      </c>
+      <c r="F7" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B8" s="136" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="121">
+        <v>0</v>
+      </c>
+      <c r="D8" s="121">
+        <v>68</v>
+      </c>
+      <c r="E8" s="121">
+        <v>70</v>
+      </c>
+      <c r="F8" s="84">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>68</v>
+      </c>
+      <c r="E9" s="36">
+        <v>70</v>
+      </c>
+      <c r="F9" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>68</v>
+      </c>
+      <c r="E10" s="36">
+        <v>70</v>
+      </c>
+      <c r="F10" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>68</v>
+      </c>
+      <c r="E11" s="36">
+        <v>70</v>
+      </c>
+      <c r="F11" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>68</v>
+      </c>
+      <c r="E12" s="36">
+        <v>70</v>
+      </c>
+      <c r="F12" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <v>68</v>
+      </c>
+      <c r="E13" s="36">
+        <v>70</v>
+      </c>
+      <c r="F13" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="136" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="121">
+        <v>0</v>
+      </c>
+      <c r="D14" s="121">
+        <v>68</v>
+      </c>
+      <c r="E14" s="121">
+        <v>70</v>
+      </c>
+      <c r="F14" s="84">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <v>68</v>
+      </c>
+      <c r="E15" s="36">
+        <v>70</v>
+      </c>
+      <c r="F15" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <v>68</v>
+      </c>
+      <c r="E16" s="36">
+        <v>70</v>
+      </c>
+      <c r="F16" s="37">
+        <v>72</v>
+      </c>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <v>68</v>
+      </c>
+      <c r="E17" s="36">
+        <v>70</v>
+      </c>
+      <c r="F17" s="37">
+        <v>72</v>
+      </c>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="36">
+        <v>0</v>
+      </c>
+      <c r="D18" s="36">
+        <v>68</v>
+      </c>
+      <c r="E18" s="36">
+        <v>70</v>
+      </c>
+      <c r="F18" s="37">
+        <v>72</v>
+      </c>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>68</v>
+      </c>
+      <c r="E19" s="36">
+        <v>70</v>
+      </c>
+      <c r="F19" s="37">
+        <v>72</v>
+      </c>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="134" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="136" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="121">
+        <v>0</v>
+      </c>
+      <c r="D20" s="121">
+        <v>68</v>
+      </c>
+      <c r="E20" s="121">
+        <v>70</v>
+      </c>
+      <c r="F20" s="84">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="132" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="36">
+        <v>0</v>
+      </c>
+      <c r="D21" s="36">
+        <v>68</v>
+      </c>
+      <c r="E21" s="36">
+        <v>70</v>
+      </c>
+      <c r="F21" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="36">
+        <v>0</v>
+      </c>
+      <c r="D22" s="36">
+        <v>68</v>
+      </c>
+      <c r="E22" s="36">
+        <v>70</v>
+      </c>
+      <c r="F22" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B23" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="36">
+        <v>0</v>
+      </c>
+      <c r="D23" s="36">
+        <v>68</v>
+      </c>
+      <c r="E23" s="36">
+        <v>70</v>
+      </c>
+      <c r="F23" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="132" t="s">
+        <v>139</v>
+      </c>
+      <c r="B24" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C24" s="36">
+        <v>0</v>
+      </c>
+      <c r="D24" s="36">
+        <v>68</v>
+      </c>
+      <c r="E24" s="36">
+        <v>70</v>
+      </c>
+      <c r="F24" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="132" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="108" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="36">
+        <v>0</v>
+      </c>
+      <c r="D25" s="36">
+        <v>68</v>
+      </c>
+      <c r="E25" s="36">
+        <v>70</v>
+      </c>
+      <c r="F25" s="37">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="118" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="38">
+        <v>0</v>
+      </c>
+      <c r="D26" s="38">
+        <v>68</v>
+      </c>
+      <c r="E26" s="38">
+        <v>70</v>
+      </c>
+      <c r="F26" s="39">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575361F0-CC83-4EBF-A7B8-5F87DF0EC294}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q34" sqref="Q34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Disposal Expansion Lead Time [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Disposal Expansion Lead Time [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>45</v>
+      </c>
+      <c r="D3" s="36">
+        <v>45</v>
+      </c>
+      <c r="E3" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>45</v>
+      </c>
+      <c r="D4" s="36">
+        <v>45</v>
+      </c>
+      <c r="E4" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36">
+        <v>45</v>
+      </c>
+      <c r="E5" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36">
+        <v>45</v>
+      </c>
+      <c r="D6" s="36">
+        <v>45</v>
+      </c>
+      <c r="E6" s="37">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>45</v>
+      </c>
+      <c r="D7" s="38">
+        <v>45</v>
+      </c>
+      <c r="E7" s="39">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7961A-57B1-48B2-BEF1-E80FD2E401AE}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>90</v>
+      </c>
+      <c r="D3" s="36">
+        <v>90</v>
+      </c>
+      <c r="E3" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
+        <v>90</v>
+      </c>
+      <c r="D4" s="36">
+        <v>90</v>
+      </c>
+      <c r="E4" s="37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+      <c r="C5" s="38">
+        <v>90</v>
+      </c>
+      <c r="D5" s="38">
+        <v>90</v>
+      </c>
+      <c r="E5" s="39">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D750F9-2545-4D09-AA5F-A5E01C2CA41C}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s/",VLOOKUP("distance", [1]Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks/mile]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B3" s="131">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163AEAF6-D0A9-48AD-BB8A-AB7E6BBF3648}">
+  <sheetPr>
+    <tabColor theme="0"/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Expansion Lead Time - Distance Based [",VLOOKUP("decision period", [1]Units!$A$2:$B$11, 2, FALSE),"s]")</f>
+        <v>Table of Pipeline Expansion Lead Time - Distance Based [weeks]</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="117" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="52">
+        <v>0</v>
+      </c>
+      <c r="D3" s="52">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="52">
+        <v>0</v>
+      </c>
+      <c r="D4" s="52">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="52">
+        <v>0</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="55">
+        <v>0</v>
+      </c>
+      <c r="D6" s="55">
+        <v>1</v>
+      </c>
+      <c r="E6" s="56">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB147A-ADA6-4AE8-850C-07F152952AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F029CD5-1567-44AB-BF24-89BDCDB51565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -97,18 +97,19 @@
     <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
     <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
     <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId85"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId86"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId87"/>
-    <sheet name="Economics" sheetId="95" r:id="rId88"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId89"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId90"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId91"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId92"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId93"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId94"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId96"/>
+    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId85"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId86"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
+    <sheet name="Economics" sheetId="95" r:id="rId89"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId93"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId94"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -44945,6 +44946,33 @@
 </file>
 
 <file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177A6E7-46E6-4E18-A350-021921880632}">
+  <sheetPr>
+    <tabColor rgb="FFAFF3DE"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="str">
+        <f>CONCATENATE( "Table with processing cost for sending water to beneficial reuse [",VLOOKUP("currency", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table with processing cost for sending water to beneficial reuse [USD/bbl]</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC47428-575A-4B6A-8C2C-3A06ECE477C9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44952,7 +44980,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -44971,7 +44999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45030,7 +45058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45098,7 +45126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45146,178 +45174,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="57" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="59">
-        <v>142277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="60">
-        <v>140998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="60">
-        <v>172490.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="60">
-        <v>257547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="60">
-        <v>241833.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="60">
-        <v>188503.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="60">
-        <v>146716</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="60">
-        <v>216563</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="60">
-        <v>150626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="60">
-        <v>247061</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="60">
-        <v>180968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="60">
-        <v>195584</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="60">
-        <v>148655</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="60">
-        <v>185369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="60">
-        <v>165376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="61">
-        <v>240977</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45375,6 +45231,178 @@
 </file>
 
 <file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="59">
+        <v>142277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="60">
+        <v>140998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="60">
+        <v>172490.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="60">
+        <v>257547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="60">
+        <v>241833.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="60">
+        <v>188503.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="60">
+        <v>146716</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="60">
+        <v>216563</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="60">
+        <v>150626</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="60">
+        <v>247061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="60">
+        <v>180968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="60">
+        <v>195584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="60">
+        <v>148655</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="60">
+        <v>185369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="60">
+        <v>165376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="61">
+        <v>240977</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45436,7 +45464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45490,7 +45518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20713590-CD4E-426A-8C22-B5174AF6B7C1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46023,7 +46051,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575361F0-CC83-4EBF-A7B8-5F87DF0EC294}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46151,7 +46179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7961A-57B1-48B2-BEF1-E80FD2E401AE}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46245,7 +46273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D750F9-2545-4D09-AA5F-A5E01C2CA41C}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46288,7 +46316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163AEAF6-D0A9-48AD-BB8A-AB7E6BBF3648}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F029CD5-1567-44AB-BF24-89BDCDB51565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C018E5E-D32F-4001-9A54-06F9A4C3E311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="324">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -967,9 +967,6 @@
   </si>
   <si>
     <t>PipelineDiameters</t>
-  </si>
-  <si>
-    <t>InjectionCapacities</t>
   </si>
   <si>
     <t>StorageCapacities</t>
@@ -6909,7 +6906,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -6989,7 +6986,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7270,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BA8" s="32" t="s">
         <v>76</v>
@@ -7281,22 +7278,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="D9" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>300</v>
-      </c>
       <c r="E9" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="63"/>
@@ -7321,7 +7318,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -7329,13 +7326,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="63"/>
@@ -7363,7 +7360,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -7464,7 +7461,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7555,7 +7552,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,7 +7718,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7837,7 +7834,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -7863,7 +7860,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8756,7 +8753,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8844,7 +8841,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8870,7 +8867,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +8893,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -8930,7 +8927,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13967,16 +13964,16 @@
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -25473,7 +25470,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -29896,7 +29893,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -31877,7 +31874,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -36195,7 +36192,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36324,10 +36321,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36336,49 +36333,111 @@
     <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D3" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E3" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="37">
+        <v>124</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
         <v>7143</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E4" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="37">
+        <v>125</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D5" s="36">
         <v>14285.714285714286</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="E5" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D6" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E6" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>7143</v>
+      </c>
+      <c r="D7" s="38">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E7" s="39">
         <v>50000</v>
       </c>
     </row>
@@ -36510,7 +36569,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>46</v>
@@ -37111,7 +37170,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>188</v>
@@ -37235,12 +37294,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="39">
         <v>300000</v>
@@ -37421,124 +37480,124 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD3" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO3" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="98"/>
       <c r="AR3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT3" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -37546,127 +37605,127 @@
         <v>90</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="9">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD4" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO4" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="98"/>
       <c r="AR4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT4" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -37674,127 +37733,127 @@
         <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" s="9">
         <v>1.2563</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD5" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH5" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO5" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="98"/>
       <c r="AR5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT5" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -37802,127 +37861,127 @@
         <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L6" s="9">
         <v>2.5074000000000001</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD6" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH6" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO6" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="98"/>
       <c r="AR6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT6" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -37930,127 +37989,127 @@
         <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" s="9">
         <v>5.9184867367820804</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M7" s="9">
         <v>1.4871000000000001</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD7" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH7" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO7" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="98"/>
       <c r="AR7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT7" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -38058,127 +38117,127 @@
         <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="9">
         <v>2.4758</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD8" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH8" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO8" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="98"/>
       <c r="AR8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT8" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -38186,127 +38245,127 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P9" s="9">
         <v>3.0722259990726202</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD9" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH9" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO9" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="98"/>
       <c r="AR9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT9" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -38314,127 +38373,127 @@
         <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S10" s="9">
         <v>9.952</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD10" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH10" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO10" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="98"/>
       <c r="AR10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT10" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -38442,127 +38501,127 @@
         <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V11" s="9">
         <v>2.4247000000000001</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD11" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH11" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO11" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="98"/>
       <c r="AR11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -38570,127 +38629,127 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T12" s="9">
         <v>2.4037000000000002</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD12" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH12" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO12" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="98"/>
       <c r="AR12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT12" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -38698,127 +38757,127 @@
         <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z13" s="9">
         <v>3.8296999999999999</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD13" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH13" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO13" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="98"/>
       <c r="AR13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT13" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -38826,127 +38885,127 @@
         <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB14" s="9">
         <v>8.504999999999999</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD14" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH14" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO14" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="98"/>
       <c r="AR14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT14" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -38954,127 +39013,127 @@
         <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB15" s="9">
         <v>8.9529999999999994</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD15" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH15" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO15" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="98"/>
       <c r="AR15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT15" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -39082,127 +39141,127 @@
         <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB16" s="9">
         <v>1.2424999999999999</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD16" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH16" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO16" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="98"/>
       <c r="AR16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT16" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
@@ -39210,102 +39269,102 @@
         <v>119</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I17" s="95">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD17" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH17" s="111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI17" s="95"/>
       <c r="AJ17" s="95"/>
@@ -39314,18 +39373,18 @@
       <c r="AM17" s="95"/>
       <c r="AN17" s="95"/>
       <c r="AO17" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP17" s="109"/>
       <c r="AQ17" s="111"/>
       <c r="AR17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT17" s="110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
@@ -39333,101 +39392,101 @@
         <v>120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R18" s="9">
         <v>2.0697000000000001</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD18" s="113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH18" s="91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
@@ -39436,18 +39495,18 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP18" s="32"/>
       <c r="AQ18" s="91"/>
       <c r="AR18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT18" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
@@ -39455,101 +39514,101 @@
         <v>121</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R19" s="100"/>
       <c r="S19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD19" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH19" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI19" s="100"/>
       <c r="AJ19" s="100"/>
@@ -39558,18 +39617,18 @@
       <c r="AM19" s="100"/>
       <c r="AN19" s="100"/>
       <c r="AO19" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP19" s="100"/>
       <c r="AQ19" s="101"/>
       <c r="AR19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT19" s="104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -39577,113 +39636,113 @@
         <v>148</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="115">
         <v>4.0752409775985399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD20" s="114">
         <v>4.1717000000000004</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH20" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO20" s="97"/>
       <c r="AP20" s="9"/>
@@ -39700,110 +39759,110 @@
         <v>4.0752409775985399</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="9">
         <v>1.8142</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD21" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH21" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO21" s="97"/>
       <c r="AP21" s="9"/>
@@ -39817,103 +39876,103 @@
         <v>150</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E22" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD22" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH22" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI22" s="9">
         <v>1.4</v>
@@ -39923,7 +39982,7 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO22" s="97"/>
       <c r="AP22" s="9"/>
@@ -39937,113 +39996,113 @@
         <v>151</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G23" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD23" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE23" s="9">
         <v>1.3163</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH23" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO23" s="97"/>
       <c r="AP23" s="9"/>
@@ -40057,113 +40116,113 @@
         <v>152</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="115">
         <v>1.8142</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I24" s="9">
         <v>1.4431</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH24" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO24" s="97"/>
       <c r="AP24" s="9"/>
@@ -40177,113 +40236,113 @@
         <v>153</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H25" s="9">
         <v>1.153</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD25" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH25" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO25" s="97"/>
       <c r="AP25" s="9"/>
@@ -40297,25 +40356,25 @@
         <v>154</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G26" s="9">
         <v>1.153</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I26" s="9">
         <v>6.0780000000000003</v>
@@ -40324,86 +40383,86 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD26" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH26" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO26" s="97"/>
       <c r="AP26" s="9"/>
@@ -40417,103 +40476,103 @@
         <v>155</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F27" s="9">
         <v>1.4431</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H27" s="9">
         <v>6.0780000000000003</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD27" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH27" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -40521,7 +40580,7 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO27" s="97"/>
       <c r="AP27" s="9"/>
@@ -40535,31 +40594,31 @@
         <v>156</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H28" s="9">
         <v>2.4449000000000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K28" s="9">
         <v>3.2</v>
@@ -40568,80 +40627,80 @@
         <v>3.8851</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD28" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH28" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO28" s="97"/>
       <c r="AP28" s="9"/>
@@ -40655,104 +40714,104 @@
         <v>157</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J29" s="9">
         <v>3.2</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD29" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH29" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ29" s="9">
         <v>2.5</v>
@@ -40761,7 +40820,7 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO29" s="97"/>
       <c r="AP29" s="9"/>
@@ -40775,113 +40834,113 @@
         <v>158</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J30" s="9">
         <v>3.8851</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N30" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD30" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH30" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
       <c r="AN30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO30" s="97"/>
       <c r="AP30" s="9"/>
@@ -40895,104 +40954,104 @@
         <v>159</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O31" s="9">
         <v>5.3</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD31" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH31" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9">
@@ -41001,7 +41060,7 @@
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO31" s="97"/>
       <c r="AP31" s="9"/>
@@ -41015,113 +41074,113 @@
         <v>160</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L32" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O32" s="9">
         <v>3.1087656701677102</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD32" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF32" s="9">
         <v>3.0184000000000002</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH32" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO32" s="97"/>
       <c r="AP32" s="9"/>
@@ -41135,37 +41194,37 @@
         <v>161</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M33" s="9">
         <v>5.3</v>
@@ -41174,74 +41233,74 @@
         <v>3.1087656701677102</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC33" s="9">
         <v>1.3958999999999999</v>
       </c>
       <c r="AD33" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH33" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO33" s="97"/>
       <c r="AP33" s="9"/>
@@ -41255,113 +41314,113 @@
         <v>162</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC34" s="9">
         <v>7.1440000000000001</v>
       </c>
       <c r="AD34" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH34" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ34" s="9"/>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO34" s="97"/>
       <c r="AP34" s="9"/>
@@ -41375,113 +41434,113 @@
         <v>163</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P35" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R35" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD35" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH35" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO35" s="97"/>
       <c r="AP35" s="9"/>
@@ -41495,113 +41554,113 @@
         <v>164</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD36" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG36" s="9">
         <v>6.4859913942891003</v>
       </c>
       <c r="AH36" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
       <c r="AN36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO36" s="97"/>
       <c r="AP36" s="9"/>
@@ -41615,113 +41674,113 @@
         <v>165</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T37" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD37" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG37" s="9">
         <v>3.419</v>
       </c>
       <c r="AH37" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
       <c r="AN37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO37" s="97"/>
       <c r="AP37" s="9"/>
@@ -41735,113 +41794,113 @@
         <v>166</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S38" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W38" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD38" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH38" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO38" s="97"/>
       <c r="AP38" s="9"/>
@@ -41855,106 +41914,106 @@
         <v>167</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V39" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC39" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="AD39" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH39" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
@@ -41975,113 +42034,113 @@
         <v>168</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U40" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W40" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD40" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH40" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ40" s="9"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO40" s="97"/>
       <c r="AP40" s="9"/>
@@ -42095,113 +42154,113 @@
         <v>169</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T41" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V41" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X41" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD41" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF41" s="9">
         <v>3.8807999999999998</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH41" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
       <c r="AL41" s="9"/>
       <c r="AM41" s="9"/>
       <c r="AN41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO41" s="97"/>
       <c r="AP41" s="9"/>
@@ -42215,106 +42274,106 @@
         <v>170</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W42" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y42" s="9">
         <v>2.8607</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD42" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH42" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ42" s="9"/>
       <c r="AK42" s="9"/>
@@ -42323,7 +42382,7 @@
         <v>3.2</v>
       </c>
       <c r="AN42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO42" s="97"/>
       <c r="AP42" s="9"/>
@@ -42337,106 +42396,106 @@
         <v>171</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" s="9">
         <v>2.8607</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z43" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD43" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH43" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9"/>
@@ -42457,113 +42516,113 @@
         <v>172</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y44" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA44" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD44" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH44" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ44" s="9"/>
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO44" s="97"/>
       <c r="AP44" s="9"/>
@@ -42577,111 +42636,111 @@
         <v>173</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z45" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB45" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH45" s="98">
         <v>3.2</v>
       </c>
       <c r="AI45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ45" s="9"/>
       <c r="AK45" s="9"/>
       <c r="AL45" s="9"/>
       <c r="AM45" s="9"/>
       <c r="AN45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO45" s="97"/>
       <c r="AP45" s="9"/>
@@ -42695,113 +42754,113 @@
         <v>174</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA46" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD46" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH46" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ46" s="9"/>
       <c r="AK46" s="9"/>
       <c r="AL46" s="9"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO46" s="97"/>
       <c r="AP46" s="9"/>
@@ -42815,43 +42874,43 @@
         <v>175</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O47" s="9">
         <v>1.3958999999999999</v>
@@ -42860,64 +42919,64 @@
         <v>7.1440000000000001</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U47" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD47" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH47" s="98"/>
       <c r="AI47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="9"/>
       <c r="AL47" s="9"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO47" s="97"/>
       <c r="AP47" s="9"/>
@@ -43048,85 +43107,85 @@
       <c r="M50" s="100"/>
       <c r="N50" s="100"/>
       <c r="O50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD50" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH50" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ50" s="100"/>
       <c r="AK50" s="100"/>
       <c r="AL50" s="100"/>
       <c r="AM50" s="100"/>
       <c r="AN50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO50" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP50" s="100"/>
       <c r="AQ50" s="101"/>
       <c r="AR50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT50" s="104">
         <v>6</v>
@@ -43137,116 +43196,116 @@
         <v>129</v>
       </c>
       <c r="B51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD51" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH51" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ51" s="95"/>
       <c r="AK51" s="95"/>
       <c r="AL51" s="95"/>
       <c r="AM51" s="95"/>
       <c r="AN51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO51" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP51" s="95"/>
       <c r="AQ51" s="96"/>
@@ -43265,116 +43324,116 @@
         <v>130</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD52" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH52" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ52" s="100"/>
       <c r="AK52" s="100"/>
       <c r="AL52" s="100"/>
       <c r="AM52" s="100"/>
       <c r="AN52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO52" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP52" s="100"/>
       <c r="AQ52" s="101"/>
@@ -43393,114 +43452,114 @@
         <v>136</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D53" s="9">
         <v>1.4</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD53" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH53" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO53" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="98"/>
@@ -43513,109 +43572,109 @@
         <v>137</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K54" s="9">
         <v>2.5</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD54" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH54" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ54" s="9"/>
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
       <c r="AM54" s="9"/>
       <c r="AN54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO54" s="97">
         <v>0.1</v>
@@ -44209,7 +44268,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44512,7 +44571,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44523,7 +44582,7 @@
         <v>275</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -44814,7 +44873,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -44881,7 +44940,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45018,7 +45077,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45078,7 +45137,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45086,12 +45145,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="37">
         <v>110</v>
@@ -45099,7 +45158,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="45">
         <v>0.03</v>
@@ -45107,7 +45166,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="37">
         <v>10</v>
@@ -45115,7 +45174,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="39">
         <v>150</v>
@@ -45145,7 +45204,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45153,12 +45212,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="45">
         <v>0.08</v>
@@ -45166,7 +45225,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="39">
         <v>20</v>
@@ -45262,10 +45321,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45428,10 +45487,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45493,7 +45552,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -46300,12 +46359,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F029CD5-1567-44AB-BF24-89BDCDB51565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303915C-F595-471E-A517-84A0AA661F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -21,99 +21,101 @@
     <sheet name="CompletionsPads" sheetId="3" r:id="rId6"/>
     <sheet name="SWDSites" sheetId="4" r:id="rId7"/>
     <sheet name="FreshwaterSources" sheetId="35" r:id="rId8"/>
-    <sheet name="StorageSites" sheetId="36" r:id="rId9"/>
-    <sheet name="TreatmentSites" sheetId="37" r:id="rId10"/>
-    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId11"/>
-    <sheet name="ReuseOptions" sheetId="38" r:id="rId12"/>
-    <sheet name="NetworkNodes" sheetId="39" r:id="rId13"/>
-    <sheet name="PipelineDiameters" sheetId="53" r:id="rId14"/>
-    <sheet name="StorageCapacities" sheetId="54" r:id="rId15"/>
-    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId16"/>
-    <sheet name="InjectionCapacities" sheetId="55" r:id="rId17"/>
-    <sheet name="PNA" sheetId="56" r:id="rId18"/>
-    <sheet name="CNA" sheetId="57" r:id="rId19"/>
-    <sheet name="CCA" sheetId="73" r:id="rId20"/>
-    <sheet name="NNA" sheetId="58" r:id="rId21"/>
-    <sheet name="NCA" sheetId="59" r:id="rId22"/>
-    <sheet name="NKA" sheetId="60" r:id="rId23"/>
-    <sheet name="NRA" sheetId="61" r:id="rId24"/>
-    <sheet name="NSA" sheetId="76" r:id="rId25"/>
-    <sheet name="NOA" sheetId="119" r:id="rId26"/>
-    <sheet name="SNA" sheetId="77" r:id="rId27"/>
-    <sheet name="SOA" sheetId="120" r:id="rId28"/>
-    <sheet name="FCA" sheetId="41" r:id="rId29"/>
-    <sheet name="RCA" sheetId="83" r:id="rId30"/>
-    <sheet name="RSA" sheetId="105" r:id="rId31"/>
-    <sheet name="SCA" sheetId="108" r:id="rId32"/>
-    <sheet name="RNA" sheetId="62" r:id="rId33"/>
-    <sheet name="ROA" sheetId="121" r:id="rId34"/>
-    <sheet name="RKA" sheetId="133" r:id="rId35"/>
-    <sheet name="PCT" sheetId="42" r:id="rId36"/>
-    <sheet name="FCT" sheetId="70" r:id="rId37"/>
-    <sheet name="PKT" sheetId="43" r:id="rId38"/>
-    <sheet name="CKT" sheetId="44" r:id="rId39"/>
-    <sheet name="CCT" sheetId="74" r:id="rId40"/>
-    <sheet name="CST" sheetId="64" r:id="rId41"/>
-    <sheet name="RST" sheetId="122" r:id="rId42"/>
-    <sheet name="ROT" sheetId="123" r:id="rId43"/>
-    <sheet name="SOT" sheetId="124" r:id="rId44"/>
-    <sheet name="RKT" sheetId="134" r:id="rId45"/>
-    <sheet name="Elevation" sheetId="115" r:id="rId46"/>
-    <sheet name="CompletionsDemand" sheetId="8" r:id="rId47"/>
-    <sheet name="PadRates" sheetId="65" r:id="rId48"/>
-    <sheet name="FlowbackRates" sheetId="75" r:id="rId49"/>
-    <sheet name="WellPressure" sheetId="116" r:id="rId50"/>
-    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId51"/>
-    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId52"/>
-    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId53"/>
-    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId54"/>
-    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId55"/>
-    <sheet name="ReuseMinimum" sheetId="125" r:id="rId56"/>
-    <sheet name="ReuseCapacity" sheetId="126" r:id="rId57"/>
-    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId58"/>
-    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId59"/>
-    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId60"/>
-    <sheet name="NodeCapacities" sheetId="102" r:id="rId61"/>
-    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId62"/>
-    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId63"/>
-    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId64"/>
-    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId65"/>
-    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId66"/>
-    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId67"/>
-    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId68"/>
-    <sheet name="TruckingTime" sheetId="7" r:id="rId69"/>
-    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId70"/>
-    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId71"/>
-    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId72"/>
-    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId73"/>
-    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId74"/>
-    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId75"/>
-    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId76"/>
-    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId77"/>
-    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId78"/>
-    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId79"/>
-    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId80"/>
-    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId81"/>
-    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId82"/>
-    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId83"/>
-    <sheet name="DesalinationSites" sheetId="113" r:id="rId84"/>
-    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId85"/>
-    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId86"/>
-    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId87"/>
-    <sheet name="Hydraulics" sheetId="93" r:id="rId88"/>
-    <sheet name="Economics" sheetId="95" r:id="rId89"/>
-    <sheet name="PadWaterQuality" sheetId="99" r:id="rId90"/>
-    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId91"/>
-    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId92"/>
-    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId93"/>
-    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId94"/>
-    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
-    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
-    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="WaterQualityComponents" sheetId="136" r:id="rId9"/>
+    <sheet name="StorageSites" sheetId="36" r:id="rId10"/>
+    <sheet name="TreatmentSites" sheetId="37" r:id="rId11"/>
+    <sheet name="TreatmentTechnologies" sheetId="104" r:id="rId12"/>
+    <sheet name="ReuseOptions" sheetId="38" r:id="rId13"/>
+    <sheet name="NetworkNodes" sheetId="39" r:id="rId14"/>
+    <sheet name="PipelineDiameters" sheetId="53" r:id="rId15"/>
+    <sheet name="StorageCapacities" sheetId="54" r:id="rId16"/>
+    <sheet name="TreatmentCapacities" sheetId="86" r:id="rId17"/>
+    <sheet name="InjectionCapacities" sheetId="55" r:id="rId18"/>
+    <sheet name="PNA" sheetId="56" r:id="rId19"/>
+    <sheet name="CNA" sheetId="57" r:id="rId20"/>
+    <sheet name="CCA" sheetId="73" r:id="rId21"/>
+    <sheet name="NNA" sheetId="58" r:id="rId22"/>
+    <sheet name="NCA" sheetId="59" r:id="rId23"/>
+    <sheet name="NKA" sheetId="60" r:id="rId24"/>
+    <sheet name="NRA" sheetId="61" r:id="rId25"/>
+    <sheet name="NSA" sheetId="76" r:id="rId26"/>
+    <sheet name="NOA" sheetId="119" r:id="rId27"/>
+    <sheet name="SNA" sheetId="77" r:id="rId28"/>
+    <sheet name="SOA" sheetId="120" r:id="rId29"/>
+    <sheet name="FCA" sheetId="41" r:id="rId30"/>
+    <sheet name="RCA" sheetId="83" r:id="rId31"/>
+    <sheet name="RSA" sheetId="105" r:id="rId32"/>
+    <sheet name="SCA" sheetId="108" r:id="rId33"/>
+    <sheet name="RNA" sheetId="62" r:id="rId34"/>
+    <sheet name="ROA" sheetId="121" r:id="rId35"/>
+    <sheet name="RKA" sheetId="133" r:id="rId36"/>
+    <sheet name="PCT" sheetId="42" r:id="rId37"/>
+    <sheet name="FCT" sheetId="70" r:id="rId38"/>
+    <sheet name="PKT" sheetId="43" r:id="rId39"/>
+    <sheet name="CKT" sheetId="44" r:id="rId40"/>
+    <sheet name="CCT" sheetId="74" r:id="rId41"/>
+    <sheet name="CST" sheetId="64" r:id="rId42"/>
+    <sheet name="RST" sheetId="122" r:id="rId43"/>
+    <sheet name="ROT" sheetId="123" r:id="rId44"/>
+    <sheet name="SOT" sheetId="124" r:id="rId45"/>
+    <sheet name="RKT" sheetId="134" r:id="rId46"/>
+    <sheet name="Elevation" sheetId="115" r:id="rId47"/>
+    <sheet name="CompletionsDemand" sheetId="8" r:id="rId48"/>
+    <sheet name="PadRates" sheetId="65" r:id="rId49"/>
+    <sheet name="FlowbackRates" sheetId="75" r:id="rId50"/>
+    <sheet name="WellPressure" sheetId="116" r:id="rId51"/>
+    <sheet name="InitialPipelineCapacity" sheetId="118" r:id="rId52"/>
+    <sheet name="InitialPipelineDiameters" sheetId="117" r:id="rId53"/>
+    <sheet name="InitialDisposalCapacity" sheetId="46" r:id="rId54"/>
+    <sheet name="InitialStorageCapacity" sheetId="80" r:id="rId55"/>
+    <sheet name="InitialTreatmentCapacity" sheetId="67" r:id="rId56"/>
+    <sheet name="ReuseMinimum" sheetId="125" r:id="rId57"/>
+    <sheet name="ReuseCapacity" sheetId="126" r:id="rId58"/>
+    <sheet name="FreshwaterSourcingAvailability" sheetId="47" r:id="rId59"/>
+    <sheet name="CompletionsPadStorage" sheetId="72" r:id="rId60"/>
+    <sheet name="PadOffloadingCapacity" sheetId="48" r:id="rId61"/>
+    <sheet name="NodeCapacities" sheetId="102" r:id="rId62"/>
+    <sheet name="DisposalOperatingCapacity" sheetId="112" r:id="rId63"/>
+    <sheet name="DisposalOperationalCost" sheetId="49" r:id="rId64"/>
+    <sheet name="TreatmentOperationalCost" sheetId="68" r:id="rId65"/>
+    <sheet name="ReuseOperationalCost" sheetId="50" r:id="rId66"/>
+    <sheet name="PipelineOperationalCost" sheetId="69" r:id="rId67"/>
+    <sheet name="FreshSourcingCost" sheetId="52" r:id="rId68"/>
+    <sheet name="TruckingHourlyCost" sheetId="71" r:id="rId69"/>
+    <sheet name="TruckingTime" sheetId="7" r:id="rId70"/>
+    <sheet name="DisposalExpansionCost" sheetId="90" r:id="rId71"/>
+    <sheet name="DisposalCapacityIncrements" sheetId="79" r:id="rId72"/>
+    <sheet name="StorageExpansionCost" sheetId="91" r:id="rId73"/>
+    <sheet name="StorageCapacityIncrements" sheetId="81" r:id="rId74"/>
+    <sheet name="TreatmentExpansionCost" sheetId="92" r:id="rId75"/>
+    <sheet name="TreatmentCapacityIncrements" sheetId="87" r:id="rId76"/>
+    <sheet name="PipelineCapexDistanceBased" sheetId="89" r:id="rId77"/>
+    <sheet name="PipelineExpansionDistance" sheetId="94" r:id="rId78"/>
+    <sheet name="PipelineCapexCapacityBased" sheetId="98" r:id="rId79"/>
+    <sheet name="PipelineCapacityIncrements" sheetId="97" r:id="rId80"/>
+    <sheet name="PipelineDiameterValues" sheetId="78" r:id="rId81"/>
+    <sheet name="TreatmentEfficiency" sheetId="107" r:id="rId82"/>
+    <sheet name="RemovalEfficiency" sheetId="114" r:id="rId83"/>
+    <sheet name="DesalinationTechnologies" sheetId="111" r:id="rId84"/>
+    <sheet name="DesalinationSites" sheetId="113" r:id="rId85"/>
+    <sheet name="BeneficialReuseCost" sheetId="135" r:id="rId86"/>
+    <sheet name="BeneficialReuseCredit" sheetId="127" r:id="rId87"/>
+    <sheet name="CompletionsPadOutsideSystem" sheetId="110" r:id="rId88"/>
+    <sheet name="Hydraulics" sheetId="93" r:id="rId89"/>
+    <sheet name="Economics" sheetId="95" r:id="rId90"/>
+    <sheet name="FreshwaterQuality" sheetId="137" r:id="rId91"/>
+    <sheet name="PadWaterQuality" sheetId="99" r:id="rId92"/>
+    <sheet name="StorageInitialWaterQuality" sheetId="100" r:id="rId93"/>
+    <sheet name="PadStorageInitialWaterQuality" sheetId="101" r:id="rId94"/>
+    <sheet name="TreatmentExpansionLeadTime" sheetId="128" r:id="rId95"/>
+    <sheet name="DisposalExpansionLeadTime" sheetId="129" r:id="rId96"/>
+    <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId97"/>
+    <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId98"/>
+    <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId99"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="76">PipelineExpansionDistance!$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="77" hidden="1">#REF!</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="77">PipelineExpansionDistance!$O$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="325">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1745,7 +1747,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2065,6 +2067,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3048,6 +3056,59 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" style="1"/>
+    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="1" customWidth="1"/>
+    <col min="6" max="13" width="9.28515625" style="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF69D0FC-C70F-430B-9882-945A087A2D92}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3116,7 +3177,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3174,7 +3235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A85E027-57F4-45A3-888B-4C0E11BBDC89}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3218,7 +3279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F8A809-1347-42CB-A460-105FB2B000F6}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3400,7 +3461,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E58F52A-57D4-400C-9B2D-0CDF39E9349F}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3460,7 +3521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153D1DC6-FF6C-4D1F-9E23-B1795807F580}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3524,7 +3585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A75646C-6D5B-41D2-BD66-0AABE8C35A83}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3588,7 +3649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E691EF25-02B9-4EAE-A04E-51FF0E4ADDCA}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -3652,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EADE56A-3552-4283-86E6-D2B76E77A8C0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4264,7 +4325,79 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
+  <sheetPr>
+    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
+  </sheetPr>
+  <dimension ref="C3:M36"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.28515625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="40"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C21" s="41"/>
+      <c r="F21" s="41"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="42"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C24" s="42"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="42"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C26" s="42"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C27" s="42"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C31" s="42"/>
+      <c r="M31" s="26"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="42"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="42"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="42"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B44EC57-024F-431A-B1C2-58810C4F9E47}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4489,79 +4622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F319BCD0-9FF0-4128-B77A-FE703C6CAEA8}">
-  <sheetPr>
-    <tabColor theme="2" tint="-9.9978637043366805E-2"/>
-  </sheetPr>
-  <dimension ref="C3:M36"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="4.28515625" customWidth="1"/>
-    <col min="10" max="10" width="4.42578125" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="40"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="41"/>
-      <c r="F21" s="41"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="42"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="42"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="42"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="42"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="42"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="42"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="42"/>
-      <c r="M31" s="26"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="42"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="42"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="42"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="42"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F10C60C-760C-4F1B-AB9A-B14851122200}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -4627,7 +4688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399EB22-0DA7-4F9B-9913-FB50F464ABD0}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -5837,7 +5898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037676BC-0D9E-4EC2-B7DF-9077076036FD}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6109,7 +6170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B147A77C-3EC6-43F3-933A-7BFD421AB782}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6460,7 +6521,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928AC5F8-3DBD-4182-95AF-F72C7FA4D2FF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6841,7 +6902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A514516D-9002-4617-9A63-E1CA29CE5849}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6891,7 +6952,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4808B51-7FB5-4E21-8729-65532F635D98}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6917,7 +6978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E548F62-97B3-424F-8681-D1975DE263A9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6971,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4467E51B-D4D6-4F77-8182-B88E7FDFCFAF}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -6994,68 +7055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7446,6 +7445,68 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BC2D47-F187-4A8D-891B-85F0F5A9A73D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05F6C2E-9295-44C7-B492-F6D27B8F0C30}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7536,7 +7597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E0DBD1-9C53-4E86-8483-588C08719311}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7631,7 +7692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E8874E-11ED-45FA-AE95-642AF80BF911}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7702,7 +7763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3F673B-ABE6-40C2-BA6B-F7AEA69D03F8}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7819,7 +7880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E8EA98-078B-4BDA-A97F-B7C454C1A963}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7845,7 +7906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47EBC47F-080B-4969-B9F8-71510BF4D219}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -7871,7 +7932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6ED8ED-0A77-4974-A7C2-D2B875DA1401}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8026,7 +8087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F615298C-1D1C-4004-91BA-05C3C07D8B7C}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8087,7 +8148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44AE275C-BC38-44C0-8EFB-EA0A3ABCF1EE}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8406,114 +8467,6 @@
         <v>1</v>
       </c>
       <c r="F16" s="11">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="9">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9">
-        <v>1</v>
-      </c>
-      <c r="F3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="9">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10">
-        <v>1</v>
-      </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>1</v>
-      </c>
-      <c r="F5" s="11">
         <v>1</v>
       </c>
     </row>
@@ -8630,6 +8583,114 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90457C74-863B-4C67-B58B-571271FAEA0E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>1</v>
+      </c>
+      <c r="F3" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="9">
+        <v>1</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37622F2B-1E4B-46C9-B210-3150CCBB5892}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8695,7 +8756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A52059-0CB1-474F-ACFF-2997470BE1E9}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8737,7 +8798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8079EFE8-E5C8-4025-A958-99B782668057}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8826,7 +8887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93199510-2A14-4C9E-9E96-657FDB8CAA80}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8852,7 +8913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{227D2809-0DC4-4512-95A2-22671D87C65E}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8878,7 +8939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98B1ADA-4F1A-49B5-A22C-8C15AE0E8C56}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -8904,7 +8965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141F4BFE-ECEC-4C60-9DDF-0A2911AAE718}">
   <sheetPr>
     <tabColor theme="9" tint="0.79998168889431442"/>
@@ -9436,7 +9497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D6FA210-6C83-4CC4-AF45-F41CDC53F769}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -10113,7 +10174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81EF4E1D-6CE0-4F02-8B9E-F2818C0A814C}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13298,7 +13359,113 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
+  <dimension ref="A1:O15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.28515625" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="12" width="9.28515625" style="1"/>
+    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="12"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68666333-AE69-4574-92B2-6BE3A00DF612}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -13839,113 +14006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675FE18E-3C30-49FC-B6A0-0A6D3F02EBB0}">
-  <dimension ref="A1:O15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="9.28515625" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="12" width="9.28515625" style="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D4" s="12"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D761B2-74F9-4F72-A2E3-48BE6F33CF6E}">
   <sheetPr>
     <tabColor theme="7" tint="0.79998168889431442"/>
@@ -17484,7 +17545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B240-A61E-41D0-842E-43739B78FEC7}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -25452,7 +25513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C16500-80CE-42EB-A7C3-EB54B8D97D29}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29520,7 +29581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D65BC4-7454-4A45-AA93-771B11A13108}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29598,7 +29659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEDF796A-A87C-4F37-A825-AF0AD18C802A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29659,7 +29720,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A13F53-E3AE-452E-A1A1-316A2C800322}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29807,7 +29868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82E8D3A-27D5-4AFF-A822-025E759EF95A}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29834,7 +29895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B339C1BC-B757-4C4B-AB63-E49011F633A5}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -29861,7 +29922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A2DBF7-A8C0-4CE1-BE66-F8E077B6F0F1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -30494,68 +30555,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
-  <sheetPr>
-    <tabColor rgb="FFD9C6FE"/>
-  </sheetPr>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Completions Pad Storage Capacity [bbl]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="39">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -30616,6 +30615,68 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DAB793D-71C1-4CA2-A5D0-D94D2FB81D42}">
+  <sheetPr>
+    <tabColor rgb="FFD9C6FE"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Completions Pad Storage Capacity [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Completions Pad Storage Capacity [bbl]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="39">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F216C6A0-7BAD-498F-AAE7-F43EE79415DD}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -30668,7 +30729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF13C221-12DF-4609-BB39-C92B41E7288D}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -30878,7 +30939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938F1661-765C-4FF3-9C8D-056B836A43E1}">
   <sheetPr>
     <tabColor rgb="FFD9C6FE"/>
@@ -31887,7 +31948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDED9A13-6613-4A4D-92BC-DD0B79B273AD}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -31965,7 +32026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7050C77-5C7B-4C97-8F2B-C60EA6AF1AED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -32271,7 +32332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F35D225-B5AF-4E75-9547-7AC1A8034351}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -32332,7 +32393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE24AD9-42B2-417F-BF2D-D0F067DA599C}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35499,7 +35560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B9AF2E-9304-4DC1-ABFA-7D5DAA6BA0BC}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35552,7 +35613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet68.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35585569-7889-4883-A327-3B12D4AB6358}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -35736,393 +35797,6 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet69.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="9">
-        <v>3</v>
-      </c>
-      <c r="C3" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D3" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E3" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F3" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C4" s="9">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9">
-        <v>5</v>
-      </c>
-      <c r="E4" s="9">
-        <v>11</v>
-      </c>
-      <c r="F4" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="9">
-        <v>3</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="9">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6</v>
-      </c>
-      <c r="F5" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E6" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F6" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2</v>
-      </c>
-      <c r="D7" s="9">
-        <v>5</v>
-      </c>
-      <c r="E7" s="9">
-        <v>11</v>
-      </c>
-      <c r="F7" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="9">
-        <v>3</v>
-      </c>
-      <c r="C8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>6</v>
-      </c>
-      <c r="F8" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="9">
-        <v>3</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D9" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F9" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C10" s="9">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9">
-        <v>5</v>
-      </c>
-      <c r="E10" s="9">
-        <v>11</v>
-      </c>
-      <c r="F10" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="9">
-        <v>3</v>
-      </c>
-      <c r="C11" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
-        <v>6</v>
-      </c>
-      <c r="F11" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B12" s="9">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D12" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E12" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>5</v>
-      </c>
-      <c r="E13" s="9">
-        <v>11</v>
-      </c>
-      <c r="F13" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="9">
-        <v>3</v>
-      </c>
-      <c r="C14" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="D14" s="9">
-        <v>5</v>
-      </c>
-      <c r="E14" s="9">
-        <v>6</v>
-      </c>
-      <c r="F14" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" s="9">
-        <v>3</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="D15" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="F15" s="31">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="100">
-        <v>2.5</v>
-      </c>
-      <c r="C16" s="100">
-        <v>2</v>
-      </c>
-      <c r="D16" s="100">
-        <v>5</v>
-      </c>
-      <c r="E16" s="100">
-        <v>11</v>
-      </c>
-      <c r="F16" s="104">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" s="9">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="D17" s="9">
-        <v>5</v>
-      </c>
-      <c r="E17" s="9">
-        <v>6</v>
-      </c>
-      <c r="F17" s="31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="9">
-        <v>3.5</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="E18" s="9">
-        <v>5</v>
-      </c>
-      <c r="F18" s="31">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="10">
-        <v>8</v>
-      </c>
-      <c r="C19" s="10">
-        <v>6</v>
-      </c>
-      <c r="D19" s="10">
-        <v>4</v>
-      </c>
-      <c r="E19" s="10">
-        <v>2</v>
-      </c>
-      <c r="F19" s="11">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -36188,6 +35862,393 @@
 </file>
 
 <file path=xl/worksheets/sheet70.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D257926-ED56-4D32-9A5B-F7129B221F36}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="9">
+        <v>3</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F3" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9">
+        <v>11</v>
+      </c>
+      <c r="F4" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="9">
+        <v>5</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F6" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2</v>
+      </c>
+      <c r="D7" s="9">
+        <v>5</v>
+      </c>
+      <c r="E7" s="9">
+        <v>11</v>
+      </c>
+      <c r="F7" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="9">
+        <v>3</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>6</v>
+      </c>
+      <c r="F8" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F9" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9">
+        <v>5</v>
+      </c>
+      <c r="E10" s="9">
+        <v>11</v>
+      </c>
+      <c r="F10" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="9">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>6</v>
+      </c>
+      <c r="F11" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E12" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
+        <v>5</v>
+      </c>
+      <c r="E13" s="9">
+        <v>11</v>
+      </c>
+      <c r="F13" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="9">
+        <v>5</v>
+      </c>
+      <c r="E14" s="9">
+        <v>6</v>
+      </c>
+      <c r="F14" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="9">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="D15" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F15" s="31">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="100">
+        <v>2.5</v>
+      </c>
+      <c r="C16" s="100">
+        <v>2</v>
+      </c>
+      <c r="D16" s="100">
+        <v>5</v>
+      </c>
+      <c r="E16" s="100">
+        <v>11</v>
+      </c>
+      <c r="F16" s="104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="9">
+        <v>3</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>5</v>
+      </c>
+      <c r="E17" s="9">
+        <v>6</v>
+      </c>
+      <c r="F17" s="31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="C18" s="9">
+        <v>2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>4.5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>5</v>
+      </c>
+      <c r="F18" s="31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="10">
+        <v>8</v>
+      </c>
+      <c r="C19" s="10">
+        <v>6</v>
+      </c>
+      <c r="D19" s="10">
+        <v>4</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="11">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E5CD4B-C8DB-4A49-956D-761D45563331}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36319,7 +36380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet71.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982C988E-F277-4EB8-BD08-045871CAA4ED}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36388,7 +36449,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344AC655-401B-435E-9F3E-B4AFCEDA07DB}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36485,7 +36546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F26805-7F3D-4935-8D0C-80B2E9E9F409}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -36554,7 +36615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906D3944-A6F1-468B-A756-A99C077811C6}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37084,7 +37145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet75.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F6DB070-53D7-4763-B1D6-04233A007F0E}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37206,7 +37267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C902C13-E391-4A34-8851-63FF84EE5034}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -37251,7 +37312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE67BAE-6607-47A3-AB16-0544FAF51C24}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -43843,7 +43904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD7B182-CFB4-4537-B5F7-69962DD30DA1}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -43978,83 +44039,6 @@
       </c>
       <c r="G6" s="56">
         <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet79.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
-  <sheetPr>
-    <tabColor theme="5" tint="0.79998168889431442"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="B4" s="37">
-        <v>14285.714285714286</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="37">
-        <v>35714.285714285717</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>180</v>
-      </c>
-      <c r="B6" s="37">
-        <v>42857.142857142855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="B7" s="39">
-        <v>50000</v>
       </c>
     </row>
   </sheetData>
@@ -44113,6 +44097,83 @@
 </file>
 
 <file path=xl/worksheets/sheet80.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4BBCD48-6980-4EA6-BF3E-79D1C64EA04C}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.28515625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Pipeline Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Pipeline Capacity Expansion Increments [bbl/day]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="37">
+        <v>14285.714285714286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="37">
+        <v>35714.285714285717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6" s="37">
+        <v>42857.142857142855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7" s="39">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805632D3-BD42-4D5C-8C0F-68DF124ED3E8}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
@@ -44189,7 +44250,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet81.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D674F75E-153D-40A1-94D4-31ED20AACD7B}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44492,7 +44553,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet82.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04F52D1-A4A5-40E9-B226-7191D1B0C440}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44795,7 +44856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet83.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5996B071-C07A-46F0-B343-7584DB2F1269}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44862,7 +44923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet84.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80B7E4-4C81-4B91-B37B-915E590A92F2}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44945,7 +45006,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet85.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7177A6E7-46E6-4E18-A350-021921880632}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44972,7 +45033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet86.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADC47428-575A-4B6A-8C2C-3A06ECE477C9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -44999,7 +45060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet87.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2338A37-BF8E-46F2-AA7C-FB95F874D0FC}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45058,7 +45119,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet88.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EDDE38-2D71-4494-ABC1-8D5269A138D9}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45126,7 +45187,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet89.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B38E926-7D9C-44C7-B109-D8B6D2FBEDAB}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED2F8796-71C2-44EA-9373-5A0165D7B559}">
   <sheetPr>
     <tabColor rgb="FFAFF3DE"/>
@@ -45177,60 +45269,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0D7E5C-CD82-4DB8-A226-3E1C788BA0DC}">
+<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0810330A-65BC-4CEB-AFF9-D2C48AC0B620}">
   <sheetPr>
-    <tabColor theme="9" tint="0.79998168889431442"/>
+    <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" style="1"/>
-    <col min="4" max="4" width="3.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="1" customWidth="1"/>
-    <col min="6" max="13" width="9.28515625" style="1"/>
-    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.28515625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.42578125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>134</v>
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="138">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet90.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{134045F2-617D-4B6C-9AE3-C6E73CF3B321}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45402,7 +45493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet91.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE4BAFD-2A94-4164-976F-B9E5B42E5AAB}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45464,7 +45555,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet92.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA334136-9628-4654-B8E2-BCFE701B0D1B}">
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
@@ -45518,7 +45609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet93.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20713590-CD4E-426A-8C22-B5174AF6B7C1}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46051,7 +46142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet94.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575361F0-CC83-4EBF-A7B8-5F87DF0EC294}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46179,7 +46270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet95.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF7961A-57B1-48B2-BEF1-E80FD2E401AE}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46273,7 +46364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet96.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2D750F9-2545-4D09-AA5F-A5E01C2CA41C}">
   <sheetPr>
     <tabColor theme="0"/>
@@ -46316,7 +46407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet97.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163AEAF6-D0A9-48AD-BB8A-AB7E6BBF3648}">
   <sheetPr>
     <tabColor theme="0"/>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5303915C-F595-471E-A517-84A0AA661F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389E22EC-70D3-4182-B3A8-F6357F7EC6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3759" uniqueCount="326">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1113,6 +1113,9 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>List of all Water Quality Components [-]</t>
   </si>
 </sst>
 </file>
@@ -45205,7 +45208,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -45288,8 +45291,8 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
-        <f>_xlfn.CONCAT( "Table of Water Quality of Produced Water and Flowback Water [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
-        <v>Table of Water Quality of Produced Water and Flowback Water [mg/liter]</v>
+        <f>_xlfn.CONCAT( "Table of Water Quality of Freshwater Sources [",VLOOKUP("concentration", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Table of Water Quality of Freshwater Sources [mg/liter]</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C018E5E-D32F-4001-9A54-06F9A4C3E311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70066B-1633-492C-B3E6-BD6BC97CF69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3757" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="323">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1069,9 +1069,6 @@
   </si>
   <si>
     <t>max_allowable_pressure</t>
-  </si>
-  <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
   </si>
   <si>
     <t>Network Nodes to Beneficial Reuse Piping Arcs [-]</t>
@@ -6906,7 +6903,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6986,7 +6983,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7461,7 +7458,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7552,7 +7549,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7718,7 +7715,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7834,7 +7831,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7860,7 +7857,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8753,7 +8750,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8841,7 +8838,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8867,7 +8864,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8893,7 +8890,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -13950,7 +13947,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13963,8 +13960,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>311</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>305</v>
@@ -46364,7 +46362,7 @@
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>

--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A70066B-1633-492C-B3E6-BD6BC97CF69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F54364-6A3F-47E6-B66C-8E5937C2797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="136" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="140" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="141" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3756" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="344">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1106,6 +1114,69 @@
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
   </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
+  </si>
 </sst>
 </file>
 
@@ -1739,7 +1810,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2059,6 +2130,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3110,6 +3203,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F825FC16-9F7D-4A9A-AEA3-23ACE1486DD0}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6173AC6-9DCE-4C68-9486-F4483562C626}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344FB58B-928A-4171-A5A9-A467326F25FE}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DDB194-60EB-4625-812E-CA4F67AA04E6}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620C0CA8-859C-4062-B8B4-13E762A6CCA2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF46B8E-9FDE-4B80-831C-1D661FB21773}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="138"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="141" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="138"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="141" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="142">
+        <v>2</v>
+      </c>
+      <c r="C4" s="138"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="138"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="142">
+        <v>2</v>
+      </c>
+      <c r="C6" s="138"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="142">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="138"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="142">
+        <v>1</v>
+      </c>
+      <c r="C8" s="138"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="142">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="138"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="141" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="142">
+        <v>1</v>
+      </c>
+      <c r="C10" s="138"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="141" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="138"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="141" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="142">
+        <v>2</v>
+      </c>
+      <c r="C12" s="138"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="142">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="143" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -46483,4 +46856,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568A3A3F-A913-4933-9192-09F1473F4BAD}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D5E4E-A1C1-4A41-85E6-006526FFBDC2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F029CD5-1567-44AB-BF24-89BDCDB51565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F54364-6A3F-47E6-B66C-8E5937C2797B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
@@ -110,6 +110,14 @@
     <sheet name="StorageExpansionLeadTime" sheetId="130" r:id="rId95"/>
     <sheet name="PipelineExpansionLeadTime_Dist" sheetId="131" r:id="rId96"/>
     <sheet name="PipelineExpansionLeadTime_Capac" sheetId="132" r:id="rId97"/>
+    <sheet name="SWDDeep" sheetId="136" r:id="rId98"/>
+    <sheet name="SWDAveragePressure" sheetId="137" r:id="rId99"/>
+    <sheet name="SWDProxPAWell" sheetId="138" r:id="rId100"/>
+    <sheet name="SWDProxInactiveWell" sheetId="139" r:id="rId101"/>
+    <sheet name="SWDProxEQ" sheetId="140" r:id="rId102"/>
+    <sheet name="SWDProxFault" sheetId="141" r:id="rId103"/>
+    <sheet name="SWDProxHpOrLpWell" sheetId="142" r:id="rId104"/>
+    <sheet name="SWDRiskFactors" sheetId="143" r:id="rId105"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="76" hidden="1">#REF!</definedName>
@@ -136,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3780" uniqueCount="344">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -969,9 +977,6 @@
     <t>PipelineDiameters</t>
   </si>
   <si>
-    <t>InjectionCapacities</t>
-  </si>
-  <si>
     <t>StorageCapacities</t>
   </si>
   <si>
@@ -1074,9 +1079,6 @@
     <t>max_allowable_pressure</t>
   </si>
   <si>
-    <t>Table of Production Rate Forecasts by Pads [bbl/day]</t>
-  </si>
-  <si>
     <t>Network Nodes to Beneficial Reuse Piping Arcs [-]</t>
   </si>
   <si>
@@ -1111,6 +1113,69 @@
   </si>
   <si>
     <t>Treatment Sites to Disposal Trucking Arcs (1 denotes an arc for the treated stream and 2 denotes an arc for the residual stream) [-]</t>
+  </si>
+  <si>
+    <t>SWDs - shallow (0) or deep (1)</t>
+  </si>
+  <si>
+    <t>Average pressure/depth in vicinity of well [psi/ft]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to P&amp;A'd well [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to inactive/temporarily abandoned formerly producing well (completed prior to 2000) [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to earthquakes &gt;= 3.0 magnitude [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to fault [miles]</t>
+  </si>
+  <si>
+    <t>Table of SWD proximity to high pressure or low pressure injection well [miles]</t>
+  </si>
+  <si>
+    <t>SWD risk factors</t>
+  </si>
+  <si>
+    <t>orphan_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>orphan_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>inactive_well_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>EQ_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>fault_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_distance_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_LP_severity_risk_factor</t>
+  </si>
+  <si>
+    <t>HP_threshold</t>
+  </si>
+  <si>
+    <t>psi/ft</t>
+  </si>
+  <si>
+    <t>LP_threshold</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1810,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2065,6 +2130,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3116,6 +3203,286 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet100.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F825FC16-9F7D-4A9A-AEA3-23ACE1486DD0}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet101.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6173AC6-9DCE-4C68-9486-F4483562C626}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet102.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344FB58B-928A-4171-A5A9-A467326F25FE}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet103.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6DDB194-60EB-4625-812E-CA4F67AA04E6}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet104.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620C0CA8-859C-4062-B8B4-13E762A6CCA2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet105.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF46B8E-9FDE-4B80-831C-1D661FB21773}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="137" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="140" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="138"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="141" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C3" s="138"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="141" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="142">
+        <v>2</v>
+      </c>
+      <c r="C4" s="138"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="141" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C5" s="138"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="141" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="142">
+        <v>2</v>
+      </c>
+      <c r="C6" s="138"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="141" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="142">
+        <v>5.59</v>
+      </c>
+      <c r="C7" s="138"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="141" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" s="142">
+        <v>1</v>
+      </c>
+      <c r="C8" s="138"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="141" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="142">
+        <v>5.59</v>
+      </c>
+      <c r="C9" s="138"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="141" t="s">
+        <v>338</v>
+      </c>
+      <c r="B10" s="142">
+        <v>1</v>
+      </c>
+      <c r="C10" s="138"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="141" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="142">
+        <v>1.86</v>
+      </c>
+      <c r="C11" s="138"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="141" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="142">
+        <v>2</v>
+      </c>
+      <c r="C12" s="138"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="141" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="142">
+        <v>0.7</v>
+      </c>
+      <c r="C13" s="138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="143" t="s">
+        <v>343</v>
+      </c>
+      <c r="B14" s="144">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="138" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C820352-28DB-4692-BCE8-9A9846CC4956}">
   <sheetPr>
@@ -6909,7 +7276,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6989,7 +7356,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7273,7 +7640,7 @@
         <v>73</v>
       </c>
       <c r="AZ8" s="32" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BA8" s="32" t="s">
         <v>76</v>
@@ -7281,22 +7648,22 @@
     </row>
     <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="45" t="s">
         <v>298</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="D9" s="67" t="s">
         <v>299</v>
       </c>
-      <c r="D9" s="67" t="s">
-        <v>300</v>
-      </c>
       <c r="E9" s="70" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F9" s="63" t="s">
         <v>52</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H9" s="67"/>
       <c r="I9" s="63"/>
@@ -7321,7 +7688,7 @@
         <v>74</v>
       </c>
       <c r="AZ9" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BA9" s="1" t="s">
         <v>74</v>
@@ -7329,13 +7696,13 @@
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>84</v>
       </c>
       <c r="D10" s="67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="63"/>
@@ -7363,7 +7730,7 @@
         <v>78</v>
       </c>
       <c r="AZ10" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BA10" s="1" t="s">
         <v>78</v>
@@ -7464,7 +7831,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7555,7 +7922,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -7721,7 +8088,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -7837,7 +8204,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -7863,7 +8230,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -8756,7 +9123,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -8844,7 +9211,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -8870,7 +9237,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -8896,7 +9263,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -8930,7 +9297,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -13953,7 +14320,7 @@
   <dimension ref="A1:BC23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13966,17 +14333,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:55" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>312</v>
+      <c r="A1" s="1" t="str">
+        <f>_xlfn.CONCAT("Well pressure at production or completions pad [",VLOOKUP("pressure", Units!$A$2:$B$11, 2, FALSE),"]")</f>
+        <v>Well pressure at production or completions pad [psi]</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="Q1" s="1">
         <v>0.01</v>
@@ -25473,7 +25841,7 @@
   <sheetData>
     <row r="1" spans="1:60" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
@@ -29896,7 +30264,7 @@
         <v>42857.142857142899</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="L1" s="1">
         <v>0.7</v>
@@ -31877,7 +32245,7 @@
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F12" s="12"/>
     </row>
@@ -36195,7 +36563,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36324,10 +36692,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -36336,49 +36704,111 @@
     <col min="2" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="str">
         <f>_xlfn.CONCAT( "Table of Disposal Capacity Expansion Increments [",VLOOKUP("volume", Units!$A$2:$B$11, 2, FALSE),"/", VLOOKUP("time", Units!$A$2:$B$11, 2, FALSE),"]")</f>
         <v>Table of Disposal Capacity Expansion Increments [bbl/day]</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B3" s="36">
+        <v>0</v>
+      </c>
+      <c r="C3" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D3" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E3" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="B4" s="37">
+        <v>124</v>
+      </c>
+      <c r="B4" s="36">
+        <v>0</v>
+      </c>
+      <c r="C4" s="36">
         <v>7143</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E4" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="37">
+        <v>125</v>
+      </c>
+      <c r="B5" s="36">
+        <v>0</v>
+      </c>
+      <c r="C5" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D5" s="36">
         <v>14285.714285714286</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" s="48">
+      <c r="E5" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="36">
+        <v>0</v>
+      </c>
+      <c r="C6" s="36">
+        <v>7143</v>
+      </c>
+      <c r="D6" s="36">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E6" s="37">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="46">
+        <v>0</v>
+      </c>
+      <c r="C7" s="38">
+        <v>7143</v>
+      </c>
+      <c r="D7" s="38">
+        <v>14285.714285714286</v>
+      </c>
+      <c r="E7" s="39">
         <v>50000</v>
       </c>
     </row>
@@ -36510,7 +36940,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>46</v>
@@ -37111,7 +37541,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>188</v>
@@ -37235,12 +37665,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B3" s="39">
         <v>300000</v>
@@ -37421,124 +37851,124 @@
         <v>1.4259999999999999</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD3" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH3" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO3" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP3" s="9"/>
       <c r="AQ3" s="98"/>
       <c r="AR3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS3" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT3" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
@@ -37546,127 +37976,127 @@
         <v>90</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F4" s="9">
         <v>1.6847000000000001</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD4" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH4" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ4" s="9"/>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9"/>
       <c r="AM4" s="9"/>
       <c r="AN4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO4" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP4" s="9"/>
       <c r="AQ4" s="98"/>
       <c r="AR4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS4" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT4" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
@@ -37674,127 +38104,127 @@
         <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G5" s="9">
         <v>1.2563</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD5" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH5" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ5" s="9"/>
       <c r="AK5" s="9"/>
       <c r="AL5" s="9"/>
       <c r="AM5" s="9"/>
       <c r="AN5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO5" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP5" s="9"/>
       <c r="AQ5" s="98"/>
       <c r="AR5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS5" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT5" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -37802,127 +38232,127 @@
         <v>92</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L6" s="9">
         <v>2.5074000000000001</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD6" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH6" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ6" s="9"/>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
       <c r="AM6" s="9"/>
       <c r="AN6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO6" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP6" s="9"/>
       <c r="AQ6" s="98"/>
       <c r="AR6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS6" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT6" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
@@ -37930,127 +38360,127 @@
         <v>93</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K7" s="9">
         <v>5.9184867367820804</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M7" s="9">
         <v>1.4871000000000001</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD7" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH7" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ7" s="9"/>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9"/>
       <c r="AM7" s="9"/>
       <c r="AN7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO7" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP7" s="9"/>
       <c r="AQ7" s="98"/>
       <c r="AR7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS7" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT7" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
@@ -38058,127 +38488,127 @@
         <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q8" s="9">
         <v>2.4758</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD8" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH8" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ8" s="9"/>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="9"/>
       <c r="AN8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO8" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP8" s="9"/>
       <c r="AQ8" s="98"/>
       <c r="AR8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS8" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT8" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
@@ -38186,127 +38616,127 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P9" s="9">
         <v>3.0722259990726202</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD9" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH9" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ9" s="9"/>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
       <c r="AM9" s="9"/>
       <c r="AN9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO9" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP9" s="9"/>
       <c r="AQ9" s="98"/>
       <c r="AR9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT9" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
@@ -38314,127 +38744,127 @@
         <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S10" s="9">
         <v>9.952</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD10" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH10" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ10" s="9"/>
       <c r="AK10" s="9"/>
       <c r="AL10" s="9"/>
       <c r="AM10" s="9"/>
       <c r="AN10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO10" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP10" s="9"/>
       <c r="AQ10" s="98"/>
       <c r="AR10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS10" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT10" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
@@ -38442,127 +38872,127 @@
         <v>97</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V11" s="9">
         <v>2.4247000000000001</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD11" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH11" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ11" s="9"/>
       <c r="AK11" s="9"/>
       <c r="AL11" s="9"/>
       <c r="AM11" s="9"/>
       <c r="AN11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO11" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP11" s="9"/>
       <c r="AQ11" s="98"/>
       <c r="AR11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS11" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT11" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
@@ -38570,127 +39000,127 @@
         <v>98</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T12" s="9">
         <v>2.4037000000000002</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD12" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH12" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ12" s="9"/>
       <c r="AK12" s="9"/>
       <c r="AL12" s="9"/>
       <c r="AM12" s="9"/>
       <c r="AN12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO12" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP12" s="9"/>
       <c r="AQ12" s="98"/>
       <c r="AR12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS12" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT12" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
@@ -38698,127 +39128,127 @@
         <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z13" s="9">
         <v>3.8296999999999999</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD13" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH13" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ13" s="9"/>
       <c r="AK13" s="9"/>
       <c r="AL13" s="9"/>
       <c r="AM13" s="9"/>
       <c r="AN13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO13" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP13" s="9"/>
       <c r="AQ13" s="98"/>
       <c r="AR13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS13" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT13" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
@@ -38826,127 +39256,127 @@
         <v>100</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB14" s="9">
         <v>8.504999999999999</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD14" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH14" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ14" s="9"/>
       <c r="AK14" s="9"/>
       <c r="AL14" s="9"/>
       <c r="AM14" s="9"/>
       <c r="AN14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO14" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP14" s="9"/>
       <c r="AQ14" s="98"/>
       <c r="AR14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT14" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
@@ -38954,127 +39384,127 @@
         <v>101</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB15" s="9">
         <v>8.9529999999999994</v>
       </c>
       <c r="AC15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD15" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH15" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="9"/>
       <c r="AM15" s="9"/>
       <c r="AN15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO15" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP15" s="9"/>
       <c r="AQ15" s="98"/>
       <c r="AR15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS15" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT15" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
@@ -39082,127 +39512,127 @@
         <v>102</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB16" s="9">
         <v>1.2424999999999999</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD16" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH16" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="9"/>
       <c r="AM16" s="9"/>
       <c r="AN16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO16" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP16" s="9"/>
       <c r="AQ16" s="98"/>
       <c r="AR16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS16" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT16" s="31" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
@@ -39210,102 +39640,102 @@
         <v>119</v>
       </c>
       <c r="B17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D17" s="95"/>
       <c r="E17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I17" s="95">
         <f>2*F4</f>
         <v>3.3694000000000002</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y17" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD17" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH17" s="111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI17" s="95"/>
       <c r="AJ17" s="95"/>
@@ -39314,18 +39744,18 @@
       <c r="AM17" s="95"/>
       <c r="AN17" s="95"/>
       <c r="AO17" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP17" s="109"/>
       <c r="AQ17" s="111"/>
       <c r="AR17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS17" s="109" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT17" s="110" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
@@ -39333,101 +39763,101 @@
         <v>120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R18" s="9">
         <v>2.0697000000000001</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y18" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD18" s="113" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH18" s="91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI18" s="9"/>
       <c r="AJ18" s="9"/>
@@ -39436,18 +39866,18 @@
       <c r="AM18" s="9"/>
       <c r="AN18" s="9"/>
       <c r="AO18" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP18" s="32"/>
       <c r="AQ18" s="91"/>
       <c r="AR18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS18" s="32" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT18" s="34" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
@@ -39455,101 +39885,101 @@
         <v>121</v>
       </c>
       <c r="B19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R19" s="100"/>
       <c r="S19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD19" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH19" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI19" s="100"/>
       <c r="AJ19" s="100"/>
@@ -39558,18 +39988,18 @@
       <c r="AM19" s="100"/>
       <c r="AN19" s="100"/>
       <c r="AO19" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP19" s="100"/>
       <c r="AQ19" s="101"/>
       <c r="AR19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS19" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT19" s="104" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
@@ -39577,113 +40007,113 @@
         <v>148</v>
       </c>
       <c r="B20" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C20" s="115">
         <v>4.0752409775985399</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD20" s="114">
         <v>4.1717000000000004</v>
       </c>
       <c r="AE20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH20" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ20" s="9"/>
       <c r="AK20" s="9"/>
       <c r="AL20" s="9"/>
       <c r="AM20" s="9"/>
       <c r="AN20" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO20" s="97"/>
       <c r="AP20" s="9"/>
@@ -39700,110 +40130,110 @@
         <v>4.0752409775985399</v>
       </c>
       <c r="C21" s="115" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D21" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F21" s="9">
         <v>1.8142</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD21" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH21" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
       <c r="AN21" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO21" s="97"/>
       <c r="AP21" s="9"/>
@@ -39817,103 +40247,103 @@
         <v>150</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C22" s="9">
         <v>8.2970000000000006</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E22" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD22" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH22" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI22" s="9">
         <v>1.4</v>
@@ -39923,7 +40353,7 @@
       <c r="AL22" s="9"/>
       <c r="AM22" s="9"/>
       <c r="AN22" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO22" s="97"/>
       <c r="AP22" s="9"/>
@@ -39937,113 +40367,113 @@
         <v>151</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D23" s="9">
         <v>8.3129999999999988</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G23" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD23" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE23" s="9">
         <v>1.3163</v>
       </c>
       <c r="AF23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH23" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
       <c r="AM23" s="9"/>
       <c r="AN23" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO23" s="97"/>
       <c r="AP23" s="9"/>
@@ -40057,113 +40487,113 @@
         <v>152</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C24" s="115">
         <v>1.8142</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I24" s="9">
         <v>1.4431</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD24" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH24" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
       <c r="AM24" s="9"/>
       <c r="AN24" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO24" s="97"/>
       <c r="AP24" s="9"/>
@@ -40177,113 +40607,113 @@
         <v>153</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E25" s="9">
         <v>1.2533000000000001</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H25" s="9">
         <v>1.153</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD25" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH25" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ25" s="9"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
       <c r="AM25" s="9"/>
       <c r="AN25" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO25" s="97"/>
       <c r="AP25" s="9"/>
@@ -40297,25 +40727,25 @@
         <v>154</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G26" s="9">
         <v>1.153</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I26" s="9">
         <v>6.0780000000000003</v>
@@ -40324,86 +40754,86 @@
         <v>2.4449000000000001</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD26" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH26" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ26" s="9"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
       <c r="AN26" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO26" s="97"/>
       <c r="AP26" s="9"/>
@@ -40417,103 +40847,103 @@
         <v>155</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F27" s="9">
         <v>1.4431</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H27" s="9">
         <v>6.0780000000000003</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD27" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH27" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI27" s="9"/>
       <c r="AJ27" s="9"/>
@@ -40521,7 +40951,7 @@
       <c r="AL27" s="9"/>
       <c r="AM27" s="9"/>
       <c r="AN27" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO27" s="97"/>
       <c r="AP27" s="9"/>
@@ -40535,31 +40965,31 @@
         <v>156</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H28" s="9">
         <v>2.4449000000000001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K28" s="9">
         <v>3.2</v>
@@ -40568,80 +40998,80 @@
         <v>3.8851</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD28" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH28" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ28" s="9"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
       <c r="AN28" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO28" s="97"/>
       <c r="AP28" s="9"/>
@@ -40655,104 +41085,104 @@
         <v>157</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J29" s="9">
         <v>3.2</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD29" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH29" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ29" s="9">
         <v>2.5</v>
@@ -40761,7 +41191,7 @@
       <c r="AL29" s="9"/>
       <c r="AM29" s="9"/>
       <c r="AN29" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO29" s="97"/>
       <c r="AP29" s="9"/>
@@ -40775,113 +41205,113 @@
         <v>158</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J30" s="9">
         <v>3.8851</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N30" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD30" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH30" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ30" s="9"/>
       <c r="AK30" s="9"/>
       <c r="AL30" s="9"/>
       <c r="AM30" s="9"/>
       <c r="AN30" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO30" s="97"/>
       <c r="AP30" s="9"/>
@@ -40895,104 +41325,104 @@
         <v>159</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K31" s="9"/>
       <c r="L31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O31" s="9">
         <v>5.3</v>
       </c>
       <c r="P31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD31" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH31" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ31" s="9"/>
       <c r="AK31" s="9">
@@ -41001,7 +41431,7 @@
       <c r="AL31" s="9"/>
       <c r="AM31" s="9"/>
       <c r="AN31" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO31" s="97"/>
       <c r="AP31" s="9"/>
@@ -41015,113 +41445,113 @@
         <v>160</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L32" s="9">
         <v>2.6429999999999998</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O32" s="9">
         <v>3.1087656701677102</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD32" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF32" s="9">
         <v>3.0184000000000002</v>
       </c>
       <c r="AG32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH32" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ32" s="9"/>
       <c r="AK32" s="9"/>
       <c r="AL32" s="9"/>
       <c r="AM32" s="9"/>
       <c r="AN32" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO32" s="97"/>
       <c r="AP32" s="9"/>
@@ -41135,37 +41565,37 @@
         <v>161</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M33" s="9">
         <v>5.3</v>
@@ -41174,74 +41604,74 @@
         <v>3.1087656701677102</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC33" s="9">
         <v>1.3958999999999999</v>
       </c>
       <c r="AD33" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH33" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
       <c r="AL33" s="9"/>
       <c r="AM33" s="9"/>
       <c r="AN33" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO33" s="97"/>
       <c r="AP33" s="9"/>
@@ -41255,113 +41685,113 @@
         <v>162</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC34" s="9">
         <v>7.1440000000000001</v>
       </c>
       <c r="AD34" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH34" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ34" s="9"/>
       <c r="AK34" s="9"/>
       <c r="AL34" s="9"/>
       <c r="AM34" s="9"/>
       <c r="AN34" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO34" s="97"/>
       <c r="AP34" s="9"/>
@@ -41375,113 +41805,113 @@
         <v>163</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P35" s="9">
         <v>1.3553999999999999</v>
       </c>
       <c r="Q35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R35" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="S35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD35" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH35" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ35" s="9"/>
       <c r="AK35" s="9"/>
       <c r="AL35" s="9"/>
       <c r="AM35" s="9"/>
       <c r="AN35" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO35" s="97"/>
       <c r="AP35" s="9"/>
@@ -41495,113 +41925,113 @@
         <v>164</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q36" s="9">
         <v>3.2003367068383</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD36" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG36" s="9">
         <v>6.4859913942891003</v>
       </c>
       <c r="AH36" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="9"/>
       <c r="AM36" s="9"/>
       <c r="AN36" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO36" s="97"/>
       <c r="AP36" s="9"/>
@@ -41615,113 +42045,113 @@
         <v>165</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T37" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="U37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD37" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG37" s="9">
         <v>3.419</v>
       </c>
       <c r="AH37" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ37" s="9"/>
       <c r="AK37" s="9"/>
       <c r="AL37" s="9"/>
       <c r="AM37" s="9"/>
       <c r="AN37" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO37" s="97"/>
       <c r="AP37" s="9"/>
@@ -41735,113 +42165,113 @@
         <v>166</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S38" s="9">
         <v>9.0689999999999991</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W38" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="X38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD38" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH38" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ38" s="9"/>
       <c r="AK38" s="9"/>
       <c r="AL38" s="9"/>
       <c r="AM38" s="9"/>
       <c r="AN38" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO38" s="97"/>
       <c r="AP38" s="9"/>
@@ -41855,106 +42285,106 @@
         <v>167</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V39" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="W39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC39" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="AD39" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH39" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI39" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
@@ -41975,113 +42405,113 @@
         <v>168</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U40" s="9">
         <v>7.4349999999999996</v>
       </c>
       <c r="V40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W40" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="X40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD40" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH40" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ40" s="9"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="9"/>
       <c r="AM40" s="9"/>
       <c r="AN40" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO40" s="97"/>
       <c r="AP40" s="9"/>
@@ -42095,113 +42525,113 @@
         <v>169</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T41" s="9">
         <v>5.4977999999999998</v>
       </c>
       <c r="U41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V41" s="9">
         <v>7.3900000000000006</v>
       </c>
       <c r="W41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X41" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="Y41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD41" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF41" s="9">
         <v>3.8807999999999998</v>
       </c>
       <c r="AG41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH41" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
       <c r="AL41" s="9"/>
       <c r="AM41" s="9"/>
       <c r="AN41" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO41" s="97"/>
       <c r="AP41" s="9"/>
@@ -42215,106 +42645,106 @@
         <v>170</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W42" s="9">
         <v>2.8763999999999998</v>
       </c>
       <c r="X42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y42" s="9">
         <v>2.8607</v>
       </c>
       <c r="Z42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD42" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH42" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ42" s="9"/>
       <c r="AK42" s="9"/>
@@ -42323,7 +42753,7 @@
         <v>3.2</v>
       </c>
       <c r="AN42" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO42" s="97"/>
       <c r="AP42" s="9"/>
@@ -42337,106 +42767,106 @@
         <v>171</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X43" s="9">
         <v>2.8607</v>
       </c>
       <c r="Y43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z43" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD43" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH43" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI43" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ43" s="9"/>
       <c r="AK43" s="9"/>
@@ -42457,113 +42887,113 @@
         <v>172</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y44" s="9">
         <v>1.2730999999999999</v>
       </c>
       <c r="Z44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA44" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AB44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD44" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH44" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ44" s="9"/>
       <c r="AK44" s="9"/>
       <c r="AL44" s="9"/>
       <c r="AM44" s="9"/>
       <c r="AN44" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO44" s="97"/>
       <c r="AP44" s="9"/>
@@ -42577,111 +43007,111 @@
         <v>173</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z45" s="9">
         <v>1.5841000000000001</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB45" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AC45" s="9"/>
       <c r="AD45" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH45" s="98">
         <v>3.2</v>
       </c>
       <c r="AI45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ45" s="9"/>
       <c r="AK45" s="9"/>
       <c r="AL45" s="9"/>
       <c r="AM45" s="9"/>
       <c r="AN45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO45" s="97"/>
       <c r="AP45" s="9"/>
@@ -42695,113 +43125,113 @@
         <v>174</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA46" s="9">
         <v>1.6506000000000001</v>
       </c>
       <c r="AB46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD46" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH46" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ46" s="9"/>
       <c r="AK46" s="9"/>
       <c r="AL46" s="9"/>
       <c r="AM46" s="9"/>
       <c r="AN46" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO46" s="97"/>
       <c r="AP46" s="9"/>
@@ -42815,43 +43245,43 @@
         <v>175</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O47" s="9">
         <v>1.3958999999999999</v>
@@ -42860,64 +43290,64 @@
         <v>7.1440000000000001</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U47" s="9">
         <v>9.5470000000000006</v>
       </c>
       <c r="V47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD47" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH47" s="98"/>
       <c r="AI47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="9"/>
       <c r="AL47" s="9"/>
       <c r="AM47" s="9"/>
       <c r="AN47" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO47" s="97"/>
       <c r="AP47" s="9"/>
@@ -43048,85 +43478,85 @@
       <c r="M50" s="100"/>
       <c r="N50" s="100"/>
       <c r="O50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD50" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH50" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ50" s="100"/>
       <c r="AK50" s="100"/>
       <c r="AL50" s="100"/>
       <c r="AM50" s="100"/>
       <c r="AN50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO50" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP50" s="100"/>
       <c r="AQ50" s="101"/>
       <c r="AR50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AS50" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AT50" s="104">
         <v>6</v>
@@ -43137,116 +43567,116 @@
         <v>129</v>
       </c>
       <c r="B51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD51" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH51" s="96" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ51" s="95"/>
       <c r="AK51" s="95"/>
       <c r="AL51" s="95"/>
       <c r="AM51" s="95"/>
       <c r="AN51" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO51" s="94" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP51" s="95"/>
       <c r="AQ51" s="96"/>
@@ -43265,116 +43695,116 @@
         <v>130</v>
       </c>
       <c r="B52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD52" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH52" s="101" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ52" s="100"/>
       <c r="AK52" s="100"/>
       <c r="AL52" s="100"/>
       <c r="AM52" s="100"/>
       <c r="AN52" s="100" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO52" s="99" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP52" s="100"/>
       <c r="AQ52" s="101"/>
@@ -43393,114 +43823,114 @@
         <v>136</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D53" s="9">
         <v>1.4</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="V53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD53" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH53" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ53" s="9"/>
       <c r="AK53" s="9"/>
       <c r="AL53" s="9"/>
       <c r="AM53" s="9"/>
       <c r="AN53" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO53" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AP53" s="9"/>
       <c r="AQ53" s="98"/>
@@ -43513,109 +43943,109 @@
         <v>137</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K54" s="9">
         <v>2.5</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Q54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="R54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="X54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AA54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AB54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AD54" s="97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AE54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AH54" s="98" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AI54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AJ54" s="9"/>
       <c r="AK54" s="9"/>
       <c r="AL54" s="9"/>
       <c r="AM54" s="9"/>
       <c r="AN54" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO54" s="97">
         <v>0.1</v>
@@ -44209,7 +44639,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44512,7 +44942,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -44523,7 +44953,7 @@
         <v>275</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -44814,7 +45244,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -44881,7 +45311,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45018,7 +45448,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45078,7 +45508,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45086,12 +45516,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B3" s="37">
         <v>110</v>
@@ -45099,7 +45529,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B4" s="45">
         <v>0.03</v>
@@ -45107,7 +45537,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B5" s="37">
         <v>10</v>
@@ -45115,7 +45545,7 @@
     </row>
     <row r="6" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B6" s="39">
         <v>150</v>
@@ -45145,7 +45575,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -45153,12 +45583,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="45">
         <v>0.08</v>
@@ -45166,7 +45596,7 @@
     </row>
     <row r="4" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="39">
         <v>20</v>
@@ -45262,10 +45692,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45428,10 +45858,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -45493,7 +45923,7 @@
         <v>200</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -46300,12 +46730,12 @@
         <v>45</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="131">
         <v>0.2</v>
@@ -46426,4 +46856,56 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet98.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568A3A3F-A913-4933-9192-09F1473F4BAD}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet99.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{981D5E4E-A1C1-4A41-85E6-006526FFBDC2}">
+  <sheetPr>
+    <tabColor theme="1" tint="0.499984740745262"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/pareto/case_studies/strategic_treatment_demo.xlsx
+++ b/pareto/case_studies/strategic_treatment_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Travis\Documents\repos\project-pareto\pareto\case_studies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958429A5-150A-4F1D-AF48-3CE2F8C60865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3CDEFDA-31E7-4C54-9F7B-8524D70AD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="906" xr2:uid="{FB8C51AB-905F-4544-9E4B-1F4384FA855C}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="33" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3786" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3835" uniqueCount="345">
   <si>
     <t>Data Input Spreadsheet Overview</t>
   </si>
@@ -1193,7 +1193,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1259,8 +1259,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,8 +1303,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1808,14 +1831,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2165,9 +2217,67 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="3" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Good" xfId="4" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
@@ -3203,20 +3313,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="132" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="132" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="150">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3229,20 +3388,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>318</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="151" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="60">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="151" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="60">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="60">
+        <v>0.53438082767110195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="60">
+        <v>0.53438082767110195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="61">
+        <v>0.69925391582478724</v>
       </c>
     </row>
   </sheetData>
@@ -3255,20 +3463,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="153" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="154" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="155" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="156">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="155" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="156">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="155" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="156">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="155" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="156">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="158">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -3281,20 +3538,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="160" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="162">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="162">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="162">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="162">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="164">
+        <v>1.81</v>
       </c>
     </row>
   </sheetData>
@@ -3307,20 +3613,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="159" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="160" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="162">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="162">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="162">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="162">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="164">
+        <v>5.17</v>
       </c>
     </row>
   </sheetData>
@@ -3333,20 +3688,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="162">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="162">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="162">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="162">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="164">
+        <v>2.1800000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -3359,20 +3763,69 @@
   <sheetPr>
     <tabColor theme="1" tint="0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="162">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="161" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="162">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="162">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="161" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="162">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="164">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>
